--- a/AGCO/AGCO.xlsx
+++ b/AGCO/AGCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/AGCO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1224" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2802D28C-1A6A-4E8B-977D-40C30378879A}"/>
+  <xr:revisionPtr revIDLastSave="1235" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56B810D-99FC-4C98-B6A1-BD8059CAAF96}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="1000" windowWidth="14530" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19800" yWindow="1330" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <author>tc={6523B66B-D265-437A-9D6F-E95C9B1578DD}</author>
   </authors>
   <commentList>
-    <comment ref="G38" authorId="0" shapeId="0" xr:uid="{3F61D815-91EE-4CDB-8BFB-60BE5BFA476F}">
+    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{3F61D815-91EE-4CDB-8BFB-60BE5BFA476F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +60,7 @@
     Selling Grain &amp; Protein business</t>
       </text>
     </comment>
-    <comment ref="G41" authorId="1" shapeId="0" xr:uid="{1E3D44E4-9DA2-4E6A-A932-C941FCE37D64}">
+    <comment ref="G42" authorId="1" shapeId="0" xr:uid="{1E3D44E4-9DA2-4E6A-A932-C941FCE37D64}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +68,7 @@
     Acquisition of ag assets from Trimble via PTx Trimble ptshp</t>
       </text>
     </comment>
-    <comment ref="G62" authorId="2" shapeId="0" xr:uid="{B7F2ED1A-30F4-4349-BDF2-FA3C9366E097}">
+    <comment ref="G63" authorId="2" shapeId="0" xr:uid="{B7F2ED1A-30F4-4349-BDF2-FA3C9366E097}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +76,7 @@
     Selling Grain &amp; Protein business</t>
       </text>
     </comment>
-    <comment ref="G85" authorId="3" shapeId="0" xr:uid="{B06810CB-D0EC-4A30-8A92-8EE7F9FF608D}">
+    <comment ref="G86" authorId="3" shapeId="0" xr:uid="{B06810CB-D0EC-4A30-8A92-8EE7F9FF608D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +84,7 @@
     Selling Grain &amp; Protein business</t>
       </text>
     </comment>
-    <comment ref="G92" authorId="4" shapeId="0" xr:uid="{B84333F2-1C93-4D3F-B16F-9AB6CA17A9D3}">
+    <comment ref="G93" authorId="4" shapeId="0" xr:uid="{B84333F2-1C93-4D3F-B16F-9AB6CA17A9D3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +92,7 @@
     Selling Grain &amp; Protein business</t>
       </text>
     </comment>
-    <comment ref="H92" authorId="5" shapeId="0" xr:uid="{BA5495FC-E12A-4139-9B21-E103655D44E7}">
+    <comment ref="H93" authorId="5" shapeId="0" xr:uid="{BA5495FC-E12A-4139-9B21-E103655D44E7}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G103" authorId="6" shapeId="0" xr:uid="{E4E13984-6499-464A-8B1F-05AEA33A5B67}">
+    <comment ref="G104" authorId="6" shapeId="0" xr:uid="{E4E13984-6499-464A-8B1F-05AEA33A5B67}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -124,7 +124,7 @@
     Selling Grain &amp; Protein business</t>
       </text>
     </comment>
-    <comment ref="G105" authorId="7" shapeId="0" xr:uid="{02045E9C-AA93-40D9-8F54-B797361D8711}">
+    <comment ref="G106" authorId="7" shapeId="0" xr:uid="{02045E9C-AA93-40D9-8F54-B797361D8711}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +132,7 @@
     Acquisition of ag assets from Trimble via PTx Trimble ptshp</t>
       </text>
     </comment>
-    <comment ref="G110" authorId="8" shapeId="0" xr:uid="{B4525C2A-C590-475A-B17F-1DFB19F0F4F6}">
+    <comment ref="G111" authorId="8" shapeId="0" xr:uid="{B4525C2A-C590-475A-B17F-1DFB19F0F4F6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +140,7 @@
     Selling Grain &amp; Protein business</t>
       </text>
     </comment>
-    <comment ref="G112" authorId="9" shapeId="0" xr:uid="{6523B66B-D265-437A-9D6F-E95C9B1578DD}">
+    <comment ref="G113" authorId="9" shapeId="0" xr:uid="{6523B66B-D265-437A-9D6F-E95C9B1578DD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
   <si>
     <t>Products</t>
   </si>
@@ -558,6 +558,18 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>use for scripting</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -652,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -666,8 +678,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,31 +1014,31 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G38" dT="2024-12-12T02:15:39.35" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{3F61D815-91EE-4CDB-8BFB-60BE5BFA476F}">
+  <threadedComment ref="G39" dT="2024-12-12T02:15:39.35" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{3F61D815-91EE-4CDB-8BFB-60BE5BFA476F}">
     <text>Selling Grain &amp; Protein business</text>
   </threadedComment>
-  <threadedComment ref="G41" dT="2024-12-12T02:12:43.64" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{1E3D44E4-9DA2-4E6A-A932-C941FCE37D64}">
+  <threadedComment ref="G42" dT="2024-12-12T02:12:43.64" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{1E3D44E4-9DA2-4E6A-A932-C941FCE37D64}">
     <text>Acquisition of ag assets from Trimble via PTx Trimble ptshp</text>
   </threadedComment>
-  <threadedComment ref="G62" dT="2024-12-12T02:15:23.15" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{B7F2ED1A-30F4-4349-BDF2-FA3C9366E097}">
+  <threadedComment ref="G63" dT="2024-12-12T02:15:23.15" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{B7F2ED1A-30F4-4349-BDF2-FA3C9366E097}">
     <text>Selling Grain &amp; Protein business</text>
   </threadedComment>
-  <threadedComment ref="G85" dT="2024-12-12T02:15:14.14" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{B06810CB-D0EC-4A30-8A92-8EE7F9FF608D}">
+  <threadedComment ref="G86" dT="2024-12-12T02:15:14.14" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{B06810CB-D0EC-4A30-8A92-8EE7F9FF608D}">
     <text>Selling Grain &amp; Protein business</text>
   </threadedComment>
-  <threadedComment ref="G92" dT="2024-12-12T02:15:04.03" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{B84333F2-1C93-4D3F-B16F-9AB6CA17A9D3}">
+  <threadedComment ref="G93" dT="2024-12-12T02:15:04.03" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{B84333F2-1C93-4D3F-B16F-9AB6CA17A9D3}">
     <text>Selling Grain &amp; Protein business</text>
   </threadedComment>
-  <threadedComment ref="G103" dT="2024-12-12T02:14:45.66" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{E4E13984-6499-464A-8B1F-05AEA33A5B67}">
+  <threadedComment ref="G104" dT="2024-12-12T02:14:45.66" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{E4E13984-6499-464A-8B1F-05AEA33A5B67}">
     <text>Selling Grain &amp; Protein business</text>
   </threadedComment>
-  <threadedComment ref="G105" dT="2024-12-12T02:11:50.38" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{02045E9C-AA93-40D9-8F54-B797361D8711}">
+  <threadedComment ref="G106" dT="2024-12-12T02:11:50.38" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{02045E9C-AA93-40D9-8F54-B797361D8711}">
     <text>Acquisition of ag assets from Trimble via PTx Trimble ptshp</text>
   </threadedComment>
-  <threadedComment ref="G110" dT="2024-12-12T02:14:55.31" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{B4525C2A-C590-475A-B17F-1DFB19F0F4F6}">
+  <threadedComment ref="G111" dT="2024-12-12T02:14:55.31" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{B4525C2A-C590-475A-B17F-1DFB19F0F4F6}">
     <text>Selling Grain &amp; Protein business</text>
   </threadedComment>
-  <threadedComment ref="G112" dT="2024-12-12T02:14:17.33" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{6523B66B-D265-437A-9D6F-E95C9B1578DD}">
+  <threadedComment ref="G113" dT="2024-12-12T02:14:17.33" personId="{25316674-F37B-4DE2-B00A-4D328FFE0822}" id="{6523B66B-D265-437A-9D6F-E95C9B1578DD}">
     <text>Selling Grain &amp; Protein business</text>
   </threadedComment>
 </ThreadedComments>
@@ -1183,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AD8E5B-022C-42CE-B268-F739C26FDB37}">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1199,4180 +1209,4212 @@
     <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K2" s="7">
         <v>2023</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L2" s="1">
         <v>2023</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M2" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E4" s="5">
         <v>27900</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K4" s="7"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" s="5">
-        <v>690</v>
-      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.49</v>
+        <v>129</v>
+      </c>
+      <c r="L7" s="5">
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1795</v>
+        <v>131</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0.26</v>
+        <v>108</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1795</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="5">
-        <v>220</v>
+        <v>131</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0.16</v>
+        <v>109</v>
+      </c>
+      <c r="L11" s="5">
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="5">
-        <v>395</v>
+        <v>131</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>131</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L14" s="12">
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>923.1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>996.8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>941.1</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>729.6</v>
-      </c>
-      <c r="G15" s="2">
-        <v>837.8</v>
-      </c>
-      <c r="H15" s="2">
-        <v>736.1</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="2">
-        <f>SUM(B15:E15)</f>
-        <v>2861</v>
-      </c>
-      <c r="M15" s="2">
-        <f>SUM(F15:I15)</f>
-        <v>2303.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="2">
-        <v>503.8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>598.6</v>
-      </c>
-      <c r="D16" s="2">
-        <v>719.8</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>303.39999999999998</v>
+        <v>729.6</v>
       </c>
       <c r="G16" s="2">
-        <v>348.9</v>
+        <v>837.8</v>
       </c>
       <c r="H16" s="2">
-        <v>381.6</v>
+        <v>736.1</v>
       </c>
       <c r="I16" s="2"/>
       <c r="K16" s="8"/>
       <c r="L16" s="2">
-        <f t="shared" ref="L16:L18" si="0">SUM(B16:E16)</f>
-        <v>1822.2</v>
+        <f>SUM(B16:E16)</f>
+        <v>2861</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" ref="M16:M18" si="1">SUM(F16:I16)</f>
-        <v>1033.9000000000001</v>
+        <f>SUM(F16:I16)</f>
+        <v>2303.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2">
-        <v>1703.8</v>
+        <v>503.8</v>
       </c>
       <c r="C17" s="2">
-        <v>1990.8</v>
+        <v>598.6</v>
       </c>
       <c r="D17" s="2">
-        <v>1586.9</v>
+        <v>719.8</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>1729</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="G17" s="2">
-        <v>1902.9</v>
+        <v>348.9</v>
       </c>
       <c r="H17" s="2">
-        <v>1298.2</v>
+        <v>381.6</v>
       </c>
       <c r="I17" s="2"/>
       <c r="K17" s="8"/>
       <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>5281.5</v>
+        <f t="shared" ref="L17:L19" si="0">SUM(B17:E17)</f>
+        <v>1822.2</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="1"/>
-        <v>4930.1000000000004</v>
+        <f t="shared" ref="M17:M19" si="1">SUM(F17:I17)</f>
+        <v>1033.9000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="2">
-        <v>202.8</v>
+        <v>1703.8</v>
       </c>
       <c r="C18" s="2">
-        <v>236.5</v>
+        <v>1990.8</v>
       </c>
       <c r="D18" s="2">
-        <v>207.7</v>
+        <v>1586.9</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>166.7</v>
+        <v>1729</v>
       </c>
       <c r="G18" s="2">
-        <v>157</v>
+        <v>1902.9</v>
       </c>
       <c r="H18" s="2">
-        <v>183.4</v>
+        <v>1298.2</v>
       </c>
       <c r="I18" s="2"/>
       <c r="K18" s="8"/>
       <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v>647</v>
+        <v>5281.5</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
+        <v>4930.1000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="2">
+        <v>202.8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>236.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>207.7</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>166.7</v>
+      </c>
+      <c r="G19" s="2">
+        <v>157</v>
+      </c>
+      <c r="H19" s="2">
+        <v>183.4</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>647</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
         <v>507.1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="3">
-        <f>SUM(B15:B18)</f>
+      <c r="B20" s="3">
+        <f>SUM(B16:B19)</f>
         <v>3333.5</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:G19" si="2">SUM(C15:C18)</f>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20:G20" si="2">SUM(C16:C19)</f>
         <v>3822.7</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <f t="shared" si="2"/>
         <v>3455.5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <f t="shared" si="2"/>
         <v>2928.7</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <f t="shared" si="2"/>
         <v>3246.6</v>
       </c>
-      <c r="H19" s="3">
-        <f t="shared" ref="H19" si="3">SUM(H15:H18)</f>
+      <c r="H20" s="3">
+        <f t="shared" ref="H20" si="3">SUM(H16:H19)</f>
         <v>2599.3000000000002</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" ref="I19:M19" si="4">SUM(I15:I18)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
+      <c r="I20" s="3">
+        <f t="shared" ref="I20:M20" si="4">SUM(I16:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <f t="shared" si="4"/>
         <v>10611.7</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="4"/>
         <v>8774.6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>102.1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>136.9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>139.80000000000001</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>42.4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>76.7</v>
-      </c>
-      <c r="H22" s="2">
-        <v>52.7</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="2">
-        <f t="shared" ref="L22:L25" si="5">SUM(B22:E22)</f>
-        <v>378.8</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" ref="M22:M25" si="6">SUM(F22:I22)</f>
-        <v>171.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="2">
-        <v>99.5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>121.4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>149.80000000000001</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
-        <v>16.2</v>
+        <v>42.4</v>
       </c>
       <c r="G23" s="2">
-        <v>12.6</v>
+        <v>76.7</v>
       </c>
       <c r="H23" s="2">
-        <v>45.1</v>
+        <v>52.7</v>
       </c>
       <c r="I23" s="2"/>
       <c r="K23" s="8"/>
       <c r="L23" s="2">
-        <f t="shared" si="5"/>
-        <v>370.70000000000005</v>
+        <f t="shared" ref="L23:L26" si="5">SUM(B23:E23)</f>
+        <v>378.8</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="6"/>
-        <v>73.900000000000006</v>
+        <f t="shared" ref="M23:M26" si="6">SUM(F23:I23)</f>
+        <v>171.8</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="2">
-        <v>239.4</v>
+        <v>99.5</v>
       </c>
       <c r="C24" s="2">
-        <v>295.2</v>
+        <v>121.4</v>
       </c>
       <c r="D24" s="2">
-        <v>199.3</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
-        <v>282.89999999999998</v>
+        <v>16.2</v>
       </c>
       <c r="G24" s="2">
-        <v>288.5</v>
+        <v>12.6</v>
       </c>
       <c r="H24" s="2">
-        <v>83</v>
+        <v>45.1</v>
       </c>
       <c r="I24" s="2"/>
       <c r="K24" s="8"/>
       <c r="L24" s="2">
         <f t="shared" si="5"/>
-        <v>733.90000000000009</v>
+        <v>370.70000000000005</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="6"/>
-        <v>654.4</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2">
-        <v>18.100000000000001</v>
+        <v>239.4</v>
       </c>
       <c r="C25" s="2">
-        <v>20.9</v>
+        <v>295.2</v>
       </c>
       <c r="D25" s="2">
-        <v>19.2</v>
+        <v>199.3</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
-        <v>8</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="G25" s="2">
-        <v>12.4</v>
+        <v>288.5</v>
       </c>
       <c r="H25" s="2">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="I25" s="2"/>
       <c r="K25" s="8"/>
       <c r="L25" s="2">
         <f t="shared" si="5"/>
-        <v>58.2</v>
+        <v>733.90000000000009</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="6"/>
-        <v>27.4</v>
+        <v>654.4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="2">
+        <f t="shared" si="5"/>
+        <v>58.2</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="6"/>
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="3">
-        <f>SUM(B22:B25)</f>
+      <c r="B27" s="3">
+        <f>SUM(B23:B26)</f>
         <v>459.1</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26" si="7">SUM(C22:C25)</f>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27" si="7">SUM(C23:C26)</f>
         <v>574.4</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26" si="8">SUM(D22:D25)</f>
+      <c r="D27" s="3">
+        <f t="shared" ref="D27" si="8">SUM(D23:D26)</f>
         <v>508.1</v>
       </c>
-      <c r="E26" s="3">
-        <f t="shared" ref="E26" si="9">SUM(E22:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" ref="F26:G26" si="10">SUM(F22:F25)</f>
+      <c r="E27" s="3">
+        <f t="shared" ref="E27" si="9">SUM(E23:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ref="F27:G27" si="10">SUM(F23:F26)</f>
         <v>349.5</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <f t="shared" si="10"/>
         <v>390.2</v>
       </c>
-      <c r="H26" s="3">
-        <f t="shared" ref="H26" si="11">SUM(H22:H25)</f>
+      <c r="H27" s="3">
+        <f t="shared" ref="H27" si="11">SUM(H23:H26)</f>
         <v>187.8</v>
       </c>
-      <c r="I26" s="3">
-        <f t="shared" ref="I26:M26" si="12">SUM(I22:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="I27" s="3">
+        <f t="shared" ref="I27:M27" si="12">SUM(I23:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L27" s="3">
         <f t="shared" si="12"/>
         <v>1541.6000000000001</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="12"/>
         <v>927.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="str">
-        <f t="shared" ref="B28:I28" si="13">B1</f>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="str">
+        <f t="shared" ref="B29:I29" si="13">B2</f>
         <v>Q123</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C29" s="1" t="str">
         <f t="shared" si="13"/>
         <v>Q223</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D29" s="1" t="str">
         <f t="shared" si="13"/>
         <v>Q323</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E29" s="1" t="str">
         <f t="shared" si="13"/>
         <v>Q423</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="F29" s="1" t="str">
         <f t="shared" si="13"/>
         <v>Q124</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="13"/>
         <v>Q224</v>
       </c>
-      <c r="H28" s="1" t="str">
+      <c r="H29" s="1" t="str">
         <f t="shared" si="13"/>
         <v>Q324</v>
       </c>
-      <c r="I28" s="1" t="str">
+      <c r="I29" s="1" t="str">
         <f t="shared" si="13"/>
         <v>Q424</v>
       </c>
-      <c r="K28" s="7">
-        <f>K1</f>
+      <c r="K29" s="7">
+        <f>K2</f>
         <v>2023</v>
       </c>
-      <c r="L28" s="1">
-        <f>L1</f>
+      <c r="L29" s="1">
+        <f>L2</f>
         <v>2023</v>
       </c>
-      <c r="M28" s="1">
-        <f>M1</f>
+      <c r="M29" s="1">
+        <f>M2</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <v>3333.5</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>3822.7</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>3455.5</v>
-      </c>
-      <c r="E30" s="2">
-        <f>K30-D30-C30-B30</f>
-        <v>3800.7</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2928.7</v>
-      </c>
-      <c r="G30" s="2">
-        <v>3246.6</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2599.3000000000002</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="K30" s="8">
-        <v>14412.4</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" ref="L30:L31" si="14">SUM(B30:E30)</f>
-        <v>14412.400000000001</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" ref="M30:M31" si="15">SUM(F30:I30)</f>
-        <v>8774.5999999999985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2478.6</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2817</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2521.5</v>
       </c>
       <c r="E31" s="2">
         <f>K31-D31-C31-B31</f>
-        <v>2817.9</v>
+        <v>3800.7</v>
       </c>
       <c r="F31" s="2">
-        <v>2158.9</v>
+        <v>2928.7</v>
       </c>
       <c r="G31" s="2">
-        <v>2409.1</v>
+        <v>3246.6</v>
       </c>
       <c r="H31" s="2">
-        <v>1996.2</v>
+        <v>2599.3000000000002</v>
       </c>
       <c r="I31" s="2"/>
       <c r="K31" s="8">
+        <v>14412.4</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" ref="L31:L32" si="14">SUM(B31:E31)</f>
+        <v>14412.400000000001</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" ref="M31:M32" si="15">SUM(F31:I31)</f>
+        <v>8774.5999999999985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2478.6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2817</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2521.5</v>
+      </c>
+      <c r="E32" s="2">
+        <f>K32-D32-C32-B32</f>
+        <v>2817.9</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2158.9</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2409.1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1996.2</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="K32" s="8">
         <v>10635</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L32" s="2">
         <f t="shared" si="14"/>
         <v>10635</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M32" s="2">
         <f t="shared" si="15"/>
         <v>6564.2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <f>B30-B31</f>
+      <c r="B33" s="3">
+        <f>B31-B32</f>
         <v>854.90000000000009</v>
       </c>
-      <c r="C32" s="3">
-        <f t="shared" ref="C32:E32" si="16">C30-C31</f>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:E33" si="16">C31-C32</f>
         <v>1005.6999999999998</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <f t="shared" si="16"/>
         <v>934</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="3">
         <f t="shared" si="16"/>
         <v>982.79999999999973</v>
       </c>
-      <c r="F32" s="3">
-        <f>F30-F31</f>
+      <c r="F33" s="3">
+        <f>F31-F32</f>
         <v>769.79999999999973</v>
       </c>
-      <c r="G32" s="3">
-        <f>G30-G31</f>
+      <c r="G33" s="3">
+        <f>G31-G32</f>
         <v>837.5</v>
       </c>
-      <c r="H32" s="3">
-        <f t="shared" ref="H32:M32" si="17">H30-H31</f>
+      <c r="H33" s="3">
+        <f t="shared" ref="H33:M33" si="17">H31-H32</f>
         <v>603.10000000000014</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I33" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K33" s="9">
         <f t="shared" si="17"/>
         <v>3777.3999999999996</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L33" s="3">
         <f t="shared" si="17"/>
         <v>3777.4000000000015</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M33" s="3">
         <f t="shared" si="17"/>
         <v>2210.3999999999987</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2">
         <v>331.8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>350.3</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>355.6</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" ref="E33:E38" si="18">K33-D33-C33-B33</f>
+      <c r="E34" s="2">
+        <f t="shared" ref="E34:E39" si="18">K34-D34-C34-B34</f>
         <v>416.80000000000013</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <v>350.4</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="2">
         <v>379.8</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="2">
         <v>344.3</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="K33" s="8">
+      <c r="I34" s="2"/>
+      <c r="K34" s="8">
         <v>1454.5</v>
       </c>
-      <c r="L33" s="2">
-        <f t="shared" ref="L33:L38" si="19">SUM(B33:E33)</f>
+      <c r="L34" s="2">
+        <f t="shared" ref="L34:L39" si="19">SUM(B34:E34)</f>
         <v>1454.5000000000002</v>
       </c>
-      <c r="M33" s="2">
-        <f t="shared" ref="M33:M38" si="20">SUM(F33:I33)</f>
+      <c r="M34" s="2">
+        <f t="shared" ref="M34:M39" si="20">SUM(F34:I34)</f>
         <v>1074.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2">
         <v>119.6</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>138.80000000000001</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>139.6</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <f t="shared" si="18"/>
         <v>150.79999999999993</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <v>130.9</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <v>137.80000000000001</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="2">
         <v>121.3</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="K34" s="8">
+      <c r="I35" s="2"/>
+      <c r="K35" s="8">
         <v>548.79999999999995</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L35" s="2">
         <f t="shared" si="19"/>
         <v>548.79999999999995</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M35" s="2">
         <f t="shared" si="20"/>
         <v>390.00000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B36" s="2">
         <v>14.8</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>14.1</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>14.4</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <f t="shared" si="18"/>
         <v>14.400000000000002</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F36" s="2">
         <v>13.9</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="2">
         <v>31.7</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H36" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="K35" s="8">
+      <c r="I36" s="2"/>
+      <c r="K36" s="8">
         <v>57.7</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L36" s="2">
         <f t="shared" si="19"/>
         <v>57.7</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M36" s="2">
         <f t="shared" si="20"/>
         <v>54.400000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="18"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H37" s="2">
         <v>0.2</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="K36" s="8">
+      <c r="I37" s="2"/>
+      <c r="K37" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L37" s="2">
         <f t="shared" si="19"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M37" s="2">
         <f t="shared" si="20"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2">
         <v>1.4</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>6.1</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D38" s="2">
         <v>0.8</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="2">
         <f t="shared" si="18"/>
         <v>3.6</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G38" s="2">
         <v>30.2</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H38" s="2">
         <v>10.5</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="K37" s="8">
+      <c r="I38" s="2"/>
+      <c r="K38" s="8">
         <v>11.9</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L38" s="2">
         <f t="shared" si="19"/>
         <v>11.9</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M38" s="2">
         <f t="shared" si="20"/>
         <v>41.7</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
         <v>494.6</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H39" s="2">
         <v>3.2</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="I39" s="2"/>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M39" s="2">
         <f t="shared" si="20"/>
         <v>497.8</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="3">
-        <f>SUM(B33:B37)+B31</f>
+      <c r="B40" s="3">
+        <f>SUM(B34:B38)+B32</f>
         <v>2946.2</v>
       </c>
-      <c r="C39" s="3">
-        <f t="shared" ref="C39:F39" si="21">SUM(C33:C37)+C31</f>
+      <c r="C40" s="3">
+        <f t="shared" ref="C40:F40" si="21">SUM(C34:C38)+C32</f>
         <v>3326.3</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D40" s="3">
         <f t="shared" si="21"/>
         <v>3031.9</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E40" s="3">
         <f t="shared" si="21"/>
         <v>3407.6000000000004</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F40" s="3">
         <f t="shared" si="21"/>
         <v>2655.1</v>
       </c>
-      <c r="G39" s="3">
-        <f>SUM(G33:G38)+G31</f>
+      <c r="G40" s="3">
+        <f>SUM(G34:G39)+G32</f>
         <v>3488.3</v>
       </c>
-      <c r="H39" s="3">
-        <f t="shared" ref="H39:M39" si="22">SUM(H33:H38)+H31</f>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40:M40" si="22">SUM(H34:H39)+H32</f>
         <v>2484.5</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I40" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K40" s="9">
         <f t="shared" si="22"/>
         <v>12712</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L40" s="3">
         <f t="shared" si="22"/>
         <v>12712</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M40" s="3">
         <f t="shared" si="22"/>
         <v>8627.9</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="3">
-        <f>B30-B39</f>
+      <c r="B41" s="3">
+        <f>B31-B40</f>
         <v>387.30000000000018</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40:G40" si="23">C30-C39</f>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:G41" si="23">C31-C40</f>
         <v>496.39999999999964</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <f t="shared" si="23"/>
         <v>423.59999999999991</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <f t="shared" si="23"/>
         <v>393.09999999999945</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="23"/>
         <v>273.59999999999991</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="3">
         <f t="shared" si="23"/>
         <v>-241.70000000000027</v>
       </c>
-      <c r="H40" s="3">
-        <f t="shared" ref="H40" si="24">H30-H39</f>
+      <c r="H41" s="3">
+        <f t="shared" ref="H41" si="24">H31-H40</f>
         <v>114.80000000000018</v>
       </c>
-      <c r="I40" s="3">
-        <f t="shared" ref="I40:M40" si="25">I30-I39</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
+      <c r="I41" s="3">
+        <f t="shared" ref="I41:M41" si="25">I31-I40</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
         <f t="shared" si="25"/>
         <v>1700.3999999999996</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L41" s="3">
         <f t="shared" si="25"/>
         <v>1700.4000000000015</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M41" s="3">
         <f t="shared" si="25"/>
         <v>146.69999999999891</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2">
         <v>0.5</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>5.8</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>5.5</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" ref="E41:E42" si="26">K41-D41-C41-B41</f>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:E43" si="26">K42-D42-C42-B42</f>
         <v>-7.2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="2">
         <v>1.9</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>29.9</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H42" s="2">
         <v>33.9</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="K41" s="8">
+      <c r="I42" s="2"/>
+      <c r="K42" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L41" s="2">
-        <f t="shared" ref="L41:L42" si="27">SUM(B41:E41)</f>
+      <c r="L42" s="2">
+        <f t="shared" ref="L42:L43" si="27">SUM(B42:E42)</f>
         <v>4.6000000000000005</v>
       </c>
-      <c r="M41" s="2">
-        <f t="shared" ref="M41:M42" si="28">SUM(F41:I41)</f>
+      <c r="M42" s="2">
+        <f t="shared" ref="M42:M43" si="28">SUM(F42:I42)</f>
         <v>65.699999999999989</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="2">
         <v>50.4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>78</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>84.2</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="2">
         <f t="shared" si="26"/>
         <v>149.70000000000002</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <v>50.8</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G43" s="2">
         <v>65.3</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H43" s="2">
         <v>52.3</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="K42" s="8">
+      <c r="I43" s="2"/>
+      <c r="K43" s="8">
         <v>362.3</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L43" s="2">
         <f t="shared" si="27"/>
         <v>362.30000000000007</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M43" s="2">
         <f t="shared" si="28"/>
         <v>168.39999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="3">
-        <f>B40-B42-B41</f>
+      <c r="B44" s="3">
+        <f>B41-B43-B42</f>
         <v>336.4000000000002</v>
       </c>
-      <c r="C43" s="3">
-        <f t="shared" ref="C43:G43" si="29">C40-C42-C41</f>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:G44" si="29">C41-C43-C42</f>
         <v>412.59999999999962</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="3">
         <f t="shared" si="29"/>
         <v>333.89999999999992</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="3">
         <f t="shared" si="29"/>
         <v>250.59999999999943</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="3">
         <f t="shared" si="29"/>
         <v>220.89999999999989</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="3">
         <f t="shared" si="29"/>
         <v>-336.90000000000026</v>
       </c>
-      <c r="H43" s="3">
-        <f t="shared" ref="H43" si="30">H40-H42-H41</f>
+      <c r="H44" s="3">
+        <f t="shared" ref="H44" si="30">H41-H43-H42</f>
         <v>28.600000000000186</v>
       </c>
-      <c r="I43" s="3">
-        <f t="shared" ref="I43:M43" si="31">I40-I42-I41</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
+      <c r="I44" s="3">
+        <f t="shared" ref="I44:M44" si="31">I41-I43-I42</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
         <f t="shared" si="31"/>
         <v>1333.4999999999998</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L44" s="3">
         <f t="shared" si="31"/>
         <v>1333.5000000000014</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M44" s="3">
         <f t="shared" si="31"/>
         <v>-87.400000000001057</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B45" s="2">
         <v>120.2</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>111</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>75.3</v>
       </c>
-      <c r="E44" s="2">
-        <f t="shared" ref="E44:E46" si="32">K44-D44-C44-B44</f>
+      <c r="E45" s="2">
+        <f t="shared" ref="E45:E47" si="32">K45-D45-C45-B45</f>
         <v>-76.09999999999998</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F45" s="2">
         <v>69.099999999999994</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G45" s="2">
         <v>41.6</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H45" s="2">
         <v>11.9</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="K44" s="8">
+      <c r="I45" s="2"/>
+      <c r="K45" s="8">
         <v>230.4</v>
       </c>
-      <c r="L44" s="2">
-        <f t="shared" ref="L44:L46" si="33">SUM(B44:E44)</f>
+      <c r="L45" s="2">
+        <f t="shared" ref="L45:L47" si="33">SUM(B45:E45)</f>
         <v>230.40000000000003</v>
       </c>
-      <c r="M44" s="2">
-        <f t="shared" ref="M44:M46" si="34">SUM(F44:I44)</f>
+      <c r="M45" s="2">
+        <f t="shared" ref="M45:M47" si="34">SUM(F45:I45)</f>
         <v>122.6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D46" s="2">
         <v>21.9</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E46" s="2">
         <f t="shared" si="32"/>
         <v>12.300000000000004</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F46" s="2">
         <v>16.2</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G46" s="2">
         <v>9.6</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H46" s="2">
         <v>12.2</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="K45" s="8">
+      <c r="I46" s="2"/>
+      <c r="K46" s="8">
         <v>68.2</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L46" s="2">
         <f t="shared" si="33"/>
         <v>68.2</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M46" s="2">
         <f t="shared" si="34"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
         <v>0.1</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E47" s="2">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
         <v>1.8</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H47" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="K46" s="8">
+      <c r="I47" s="2"/>
+      <c r="K47" s="8">
         <v>0.1</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L47" s="2">
         <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M47" s="2">
         <f t="shared" si="34"/>
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3">
-        <f t="shared" ref="B47:F47" si="35">B43-B44+B45+B46</f>
+      <c r="B48" s="3">
+        <f t="shared" ref="B48:F48" si="35">B44-B45+B46+B47</f>
         <v>232.60000000000022</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C48" s="3">
         <f t="shared" si="35"/>
         <v>319.19999999999965</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="3">
         <f t="shared" si="35"/>
         <v>280.59999999999991</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="3">
         <f t="shared" si="35"/>
         <v>338.99999999999943</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <f t="shared" si="35"/>
         <v>167.99999999999989</v>
       </c>
-      <c r="G47" s="3">
-        <f>G43-G44+G45+G46</f>
+      <c r="G48" s="3">
+        <f>G44-G45+G46+G47</f>
         <v>-367.10000000000025</v>
       </c>
-      <c r="H47" s="3">
-        <f t="shared" ref="H47:M47" si="36">H43-H44+H45+H46</f>
+      <c r="H48" s="3">
+        <f t="shared" ref="H48:M48" si="36">H44-H45+H46+H47</f>
         <v>30.000000000000188</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I48" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K48" s="9">
         <f t="shared" si="36"/>
         <v>1171.3999999999996</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L48" s="3">
         <f t="shared" si="36"/>
         <v>1171.4000000000012</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M48" s="3">
         <f t="shared" si="36"/>
         <v>-169.10000000000105</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49"/>
-      <c r="B49" s="3">
-        <f>B47/B53</f>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50"/>
+      <c r="B50" s="3">
+        <f>B48/B54</f>
         <v>3.1179624664879388</v>
       </c>
-      <c r="C49" s="3">
-        <f t="shared" ref="C49:F49" si="37">C47/C53</f>
+      <c r="C50" s="3">
+        <f t="shared" ref="C50:F50" si="37">C48/C54</f>
         <v>4.2616822429906493</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="3">
         <f t="shared" si="37"/>
         <v>3.7463284379172213</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="3">
         <f t="shared" si="37"/>
         <v>4.5320855614973183</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="3">
         <f t="shared" si="37"/>
         <v>2.2429906542056059</v>
       </c>
-      <c r="G49" s="3">
-        <f t="shared" ref="G49:I49" si="38">G47/G53</f>
+      <c r="G50" s="3">
+        <f t="shared" ref="G50:I50" si="38">G48/G54</f>
         <v>-4.9209115281501381</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H50" s="3">
         <f t="shared" si="38"/>
         <v>0.40214477211796501</v>
       </c>
-      <c r="I49" s="3" t="e">
+      <c r="I50" s="3" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="9">
-        <f t="shared" ref="K49" si="39">K47/K53</f>
+      <c r="K50" s="9">
+        <f t="shared" ref="K50" si="39">K48/K54</f>
         <v>15.660427807486627</v>
       </c>
-      <c r="L49" s="3">
-        <f t="shared" ref="L49:M49" si="40">L47/L53</f>
+      <c r="L50" s="3">
+        <f t="shared" ref="L50:M50" si="40">L48/L54</f>
         <v>15.660427807486649</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M50" s="3">
         <f t="shared" si="40"/>
         <v>-2.266756032171596</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
-        <f>B47/B54</f>
+      <c r="B51" s="3">
+        <f>B48/B55</f>
         <v>3.1137884872824659</v>
       </c>
-      <c r="C50" s="3">
-        <f t="shared" ref="C50:F50" si="41">C47/C54</f>
+      <c r="C51" s="3">
+        <f t="shared" ref="C51:F51" si="41">C48/C55</f>
         <v>4.2559999999999949</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="3">
         <f t="shared" si="41"/>
         <v>3.7413333333333321</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="3">
         <f t="shared" si="41"/>
         <v>4.5260347129505929</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="3">
         <f t="shared" si="41"/>
         <v>2.2399999999999984</v>
       </c>
-      <c r="G50" s="3">
-        <f t="shared" ref="G50:I50" si="42">G47/G54</f>
+      <c r="G51" s="3">
+        <f t="shared" ref="G51:I51" si="42">G48/G55</f>
         <v>-4.914323962516737</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H51" s="3">
         <f t="shared" si="42"/>
         <v>0.40160642570281374</v>
       </c>
-      <c r="I50" s="3" t="e">
+      <c r="I51" s="3" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="9">
-        <f t="shared" ref="K50" si="43">K47/K54</f>
+      <c r="K51" s="9">
+        <f t="shared" ref="K51" si="43">K48/K55</f>
         <v>15.639519359145522</v>
       </c>
-      <c r="L50" s="3">
-        <f t="shared" ref="L50:M50" si="44">L47/L54</f>
+      <c r="L51" s="3">
+        <f t="shared" ref="L51:M51" si="44">L48/L55</f>
         <v>15.639519359145542</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M51" s="3">
         <f t="shared" si="44"/>
         <v>-2.2637215528781933</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2">
         <v>0.24</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>5.28</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E51" s="2">
-        <f>K51-D51-C51-B51</f>
+      <c r="E52" s="2">
+        <f>K52-D52-C52-B52</f>
         <v>0.28999999999999937</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F52" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G52" s="2">
         <v>2.79</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H52" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="K51" s="8">
+      <c r="I52" s="2"/>
+      <c r="K52" s="8">
         <v>6.1</v>
       </c>
-      <c r="L51" s="2">
-        <f t="shared" ref="L51" si="45">SUM(B51:E51)</f>
+      <c r="L52" s="2">
+        <f t="shared" ref="L52" si="45">SUM(B52:E52)</f>
         <v>6.1</v>
       </c>
-      <c r="M51" s="2">
-        <f t="shared" ref="M51" si="46">SUM(F51:I51)</f>
+      <c r="M52" s="2">
+        <f t="shared" ref="M52" si="46">SUM(F52:I52)</f>
         <v>3.37</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B53">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B54">
         <v>74.599999999999994</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>74.900000000000006</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>74.900000000000006</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>74.8</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>74.900000000000006</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>74.599999999999994</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>74.599999999999994</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K54" s="10">
         <v>74.8</v>
       </c>
-      <c r="L53">
+      <c r="L54">
         <v>74.8</v>
       </c>
-      <c r="M53">
+      <c r="M54">
         <v>74.599999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54">
-        <v>74.7</v>
-      </c>
-      <c r="C54">
-        <v>75</v>
-      </c>
-      <c r="D54">
-        <v>75</v>
-      </c>
-      <c r="E54">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="F54">
-        <v>75</v>
-      </c>
-      <c r="G54">
-        <v>74.7</v>
-      </c>
-      <c r="H54">
-        <v>74.7</v>
-      </c>
-      <c r="K54" s="10">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="L54">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="M54">
-        <v>74.7</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>74.7</v>
+      </c>
+      <c r="C55">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>75</v>
+      </c>
+      <c r="E55">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F55">
+        <v>75</v>
+      </c>
+      <c r="G55">
+        <v>74.7</v>
+      </c>
+      <c r="H55">
+        <v>74.7</v>
+      </c>
+      <c r="K55" s="10">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="L55">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="M55">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56"/>
-      <c r="B56" s="1" t="str">
-        <f>B28</f>
+    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57"/>
+      <c r="B57" s="1" t="str">
+        <f>B29</f>
         <v>Q123</v>
       </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" ref="C56:F56" si="47">C28</f>
+      <c r="C57" s="1" t="str">
+        <f t="shared" ref="C57:F57" si="47">C29</f>
         <v>Q223</v>
       </c>
-      <c r="D56" s="1" t="str">
+      <c r="D57" s="1" t="str">
         <f t="shared" si="47"/>
         <v>Q323</v>
       </c>
-      <c r="E56" s="1" t="str">
+      <c r="E57" s="1" t="str">
         <f t="shared" si="47"/>
         <v>Q423</v>
       </c>
-      <c r="F56" s="1" t="str">
+      <c r="F57" s="1" t="str">
         <f t="shared" si="47"/>
         <v>Q124</v>
       </c>
-      <c r="G56" s="1" t="str">
-        <f t="shared" ref="G56" si="48">G28</f>
+      <c r="G57" s="1" t="str">
+        <f t="shared" ref="G57" si="48">G29</f>
         <v>Q224</v>
       </c>
-      <c r="H56" s="1" t="str">
-        <f t="shared" ref="H56:I56" si="49">H28</f>
+      <c r="H57" s="1" t="str">
+        <f t="shared" ref="H57:I57" si="49">H29</f>
         <v>Q324</v>
       </c>
-      <c r="I56" s="1" t="str">
+      <c r="I57" s="1" t="str">
         <f t="shared" si="49"/>
         <v>Q424</v>
       </c>
-      <c r="K56" s="7">
-        <f t="shared" ref="K56" si="50">K28</f>
+      <c r="K57" s="7">
+        <f t="shared" ref="K57" si="50">K29</f>
         <v>2023</v>
       </c>
-      <c r="L56" s="1">
-        <f t="shared" ref="L56:M56" si="51">L28</f>
+      <c r="L57" s="1">
+        <f t="shared" ref="L57:M57" si="51">L29</f>
         <v>2023</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M57" s="1">
         <f t="shared" si="51"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-    </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B58" s="2">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B59" s="2">
         <v>232.6</v>
       </c>
-      <c r="C58" s="2">
-        <f>551.8-B58</f>
+      <c r="C59" s="2">
+        <f>551.8-B59</f>
         <v>319.19999999999993</v>
       </c>
-      <c r="D58" s="2">
-        <f>832.3-C58-B58</f>
+      <c r="D59" s="2">
+        <f>832.3-C59-B59</f>
         <v>280.5</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" ref="E58:E71" si="52">K58-D58-C58-B58</f>
+      <c r="E59" s="2">
+        <f t="shared" ref="E59:E72" si="52">K59-D59-C59-B59</f>
         <v>339</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F59" s="2">
         <v>168</v>
       </c>
-      <c r="G58" s="2">
-        <f>-200.9-F58</f>
+      <c r="G59" s="2">
+        <f>-200.9-F59</f>
         <v>-368.9</v>
       </c>
-      <c r="H58" s="2">
-        <f>-172-G58-F58</f>
+      <c r="H59" s="2">
+        <f>-172-G59-F59</f>
         <v>28.899999999999977</v>
       </c>
-      <c r="I58" s="2"/>
-      <c r="K58" s="8">
+      <c r="I59" s="2"/>
+      <c r="K59" s="8">
         <v>1171.3</v>
       </c>
-      <c r="L58" s="2">
-        <f t="shared" ref="L58:L71" si="53">SUM(B58:E58)</f>
+      <c r="L59" s="2">
+        <f t="shared" ref="L59:L72" si="53">SUM(B59:E59)</f>
         <v>1171.3</v>
       </c>
-      <c r="M58" s="2">
-        <f t="shared" ref="M58:M71" si="54">SUM(F58:I58)</f>
+      <c r="M59" s="2">
+        <f t="shared" ref="M59:M72" si="54">SUM(F59:I59)</f>
         <v>-172</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <f>53.6+14.8</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="C59" s="2">
-        <f>110.1+28.9-B59</f>
+      <c r="C60" s="2">
+        <f>110.1+28.9-B60</f>
         <v>70.599999999999994</v>
       </c>
-      <c r="D59" s="2">
-        <f>168.9+43.3-C59-B59</f>
+      <c r="D60" s="2">
+        <f>168.9+43.3-C60-B60</f>
         <v>73.199999999999989</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E60" s="2">
         <f t="shared" si="52"/>
         <v>18.200000000000017</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F60" s="2">
         <f>63.3+13.9</f>
         <v>77.2</v>
       </c>
-      <c r="G59" s="2">
-        <f>128.5+45.6-F59</f>
+      <c r="G60" s="2">
+        <f>128.5+45.6-F60</f>
         <v>96.899999999999991</v>
       </c>
-      <c r="H59" s="2">
-        <f>189.4+54.4-G59-F59</f>
+      <c r="H60" s="2">
+        <f>189.4+54.4-G60-F60</f>
         <v>69.700000000000031</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="K59" s="8">
+      <c r="I60" s="2"/>
+      <c r="K60" s="8">
         <v>230.4</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L60" s="2">
         <f t="shared" si="53"/>
         <v>230.4</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M60" s="2">
         <f t="shared" si="54"/>
         <v>243.8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B61" s="2">
         <v>14</v>
       </c>
-      <c r="C60" s="2">
-        <f>27.3-B60</f>
+      <c r="C61" s="2">
+        <f>27.3-B61</f>
         <v>13.3</v>
       </c>
-      <c r="D60" s="2">
-        <f>37.5-C60-B60</f>
+      <c r="D61" s="2">
+        <f>37.5-C61-B61</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E61" s="2">
         <f t="shared" si="52"/>
         <v>-33.4</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F61" s="2">
         <v>8.4</v>
       </c>
-      <c r="G60" s="2">
-        <f>16.1-F60</f>
+      <c r="G61" s="2">
+        <f>16.1-F61</f>
         <v>7.7000000000000011</v>
       </c>
-      <c r="H60" s="2">
-        <f>21.3-G60-F60</f>
+      <c r="H61" s="2">
+        <f>21.3-G61-F61</f>
         <v>5.1999999999999993</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="K60" s="8">
+      <c r="I61" s="2"/>
+      <c r="K61" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L61" s="2">
         <f t="shared" si="53"/>
         <v>4.1000000000000014</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M61" s="2">
         <f t="shared" si="54"/>
         <v>21.3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="2">
-        <v>0</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
         <f t="shared" si="52"/>
         <v>57.7</v>
       </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="6">
-        <f>5.1-F61</f>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <f>5.1-F62</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="H61" s="2">
-        <f>5.3-G61-F61</f>
+      <c r="H62" s="2">
+        <f>5.3-G62-F62</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="K61" s="8">
+      <c r="I62" s="2"/>
+      <c r="K62" s="8">
         <v>57.7</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L62" s="2">
         <f t="shared" si="53"/>
         <v>57.7</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M62" s="2">
         <f t="shared" si="54"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="2">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
         <f t="shared" si="52"/>
         <v>46.4</v>
       </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="6">
-        <f>494.6-F62</f>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <f>494.6-F63</f>
         <v>494.6</v>
       </c>
-      <c r="H62" s="2">
-        <f>497.8-G62-F62</f>
+      <c r="H63" s="2">
+        <f>497.8-G63-F63</f>
         <v>3.1999999999999886</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="K62" s="8">
+      <c r="I63" s="2"/>
+      <c r="K63" s="8">
         <v>46.4</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L63" s="2">
         <f t="shared" si="53"/>
         <v>46.4</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M63" s="2">
         <f t="shared" si="54"/>
         <v>497.8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B64" s="2">
         <v>-16.399999999999999</v>
       </c>
-      <c r="C63" s="2">
-        <f>-33.3-B63</f>
+      <c r="C64" s="2">
+        <f>-33.3-B64</f>
         <v>-16.899999999999999</v>
       </c>
-      <c r="D63" s="2">
-        <f>-53-C63-B63</f>
+      <c r="D64" s="2">
+        <f>-53-C64-B64</f>
         <v>-19.700000000000003</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E64" s="2">
         <f t="shared" si="52"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F64" s="2">
         <v>-16.2</v>
       </c>
-      <c r="G63" s="2">
-        <f>-25.1-F63</f>
+      <c r="G64" s="2">
+        <f>-25.1-F64</f>
         <v>-8.9000000000000021</v>
       </c>
-      <c r="H63" s="2">
-        <f>-37.3-G63-F63</f>
+      <c r="H64" s="2">
+        <f>-37.3-G64-F64</f>
         <v>-12.199999999999996</v>
       </c>
-      <c r="I63" s="2"/>
-      <c r="K63" s="8">
+      <c r="I64" s="2"/>
+      <c r="K64" s="8">
         <v>-36.4</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L64" s="2">
         <f t="shared" si="53"/>
         <v>-36.4</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M64" s="2">
         <f t="shared" si="54"/>
         <v>-37.299999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B65" s="2">
         <v>-3.9</v>
       </c>
-      <c r="C64" s="2">
-        <f>-22.6-B64</f>
+      <c r="C65" s="2">
+        <f>-22.6-B65</f>
         <v>-18.700000000000003</v>
       </c>
-      <c r="D64" s="2">
-        <f>-55.2-C64-B64</f>
+      <c r="D65" s="2">
+        <f>-55.2-C65-B65</f>
         <v>-32.6</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E65" s="2">
         <f t="shared" si="52"/>
         <v>-209.19999999999996</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F65" s="2">
         <v>-7.3</v>
       </c>
-      <c r="G64" s="2">
-        <f>-25.2-F64</f>
+      <c r="G65" s="2">
+        <f>-25.2-F65</f>
         <v>-17.899999999999999</v>
       </c>
-      <c r="H64" s="2">
-        <f>-30.7-G64-F64</f>
+      <c r="H65" s="2">
+        <f>-30.7-G65-F65</f>
         <v>-5.5000000000000009</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="K64" s="8">
+      <c r="I65" s="2"/>
+      <c r="K65" s="8">
         <v>-264.39999999999998</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L65" s="2">
         <f t="shared" si="53"/>
         <v>-264.39999999999998</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M65" s="2">
         <f t="shared" si="54"/>
         <v>-30.7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>2.4</v>
       </c>
-      <c r="C65" s="2">
-        <f>13.7-B65</f>
+      <c r="C66" s="2">
+        <f>13.7-B66</f>
         <v>11.299999999999999</v>
       </c>
-      <c r="D65" s="2">
-        <f>17.1-C65-B65</f>
+      <c r="D66" s="2">
+        <f>17.1-C66-B66</f>
         <v>3.4000000000000026</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E66" s="2">
         <f t="shared" si="52"/>
         <v>-10.400000000000002</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F66" s="2">
         <v>17.7</v>
       </c>
-      <c r="G65" s="2">
-        <f>19.4-F65</f>
+      <c r="G66" s="2">
+        <f>19.4-F66</f>
         <v>1.6999999999999993</v>
       </c>
-      <c r="H65" s="2">
-        <f>24.9-G65-F65</f>
+      <c r="H66" s="2">
+        <f>24.9-G66-F66</f>
         <v>5.5</v>
       </c>
-      <c r="I65" s="2"/>
-      <c r="K65" s="8">
+      <c r="I66" s="2"/>
+      <c r="K66" s="8">
         <v>6.7</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L66" s="2">
         <f t="shared" si="53"/>
         <v>6.6999999999999993</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M66" s="2">
         <f t="shared" si="54"/>
         <v>24.9</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B67" s="2">
         <v>-298.10000000000002</v>
       </c>
-      <c r="C66" s="2">
-        <f>-495.3-B66</f>
+      <c r="C67" s="2">
+        <f>-495.3-B67</f>
         <v>-197.2</v>
       </c>
-      <c r="D66" s="2">
-        <f>-481.6-C66-B66</f>
+      <c r="D67" s="2">
+        <f>-481.6-C67-B67</f>
         <v>13.699999999999989</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E67" s="2">
         <f t="shared" si="52"/>
         <v>37.800000000000011</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F67" s="2">
         <v>24.1</v>
       </c>
-      <c r="G66" s="2">
-        <f>-123.3-F66</f>
+      <c r="G67" s="2">
+        <f>-123.3-F67</f>
         <v>-147.4</v>
       </c>
-      <c r="H66" s="2">
-        <f>-102.4-G66-F66</f>
+      <c r="H67" s="2">
+        <f>-102.4-G67-F67</f>
         <v>20.9</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="K66" s="8">
+      <c r="I67" s="2"/>
+      <c r="K67" s="8">
         <v>-443.8</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L67" s="2">
         <f t="shared" si="53"/>
         <v>-443.8</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M67" s="2">
         <f t="shared" si="54"/>
         <v>-102.4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="2">
         <v>-402.6</v>
       </c>
-      <c r="C67" s="2">
-        <f>-555.1-B67</f>
+      <c r="C68" s="2">
+        <f>-555.1-B68</f>
         <v>-152.5</v>
       </c>
-      <c r="D67" s="2">
-        <f>-542.9-C67-B67</f>
+      <c r="D68" s="2">
+        <f>-542.9-C68-B68</f>
         <v>12.200000000000045</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E68" s="2">
         <f t="shared" si="52"/>
         <v>378.5</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F68" s="2">
         <v>-420.1</v>
       </c>
-      <c r="G67" s="2">
-        <f>-373.3-F67</f>
+      <c r="G68" s="2">
+        <f>-373.3-F68</f>
         <v>46.800000000000011</v>
       </c>
-      <c r="H67" s="2">
-        <f>-221.1-G67-F67</f>
+      <c r="H68" s="2">
+        <f>-221.1-G68-F68</f>
         <v>152.20000000000005</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="K67" s="8">
+      <c r="I68" s="2"/>
+      <c r="K68" s="8">
         <v>-164.4</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L68" s="2">
         <f t="shared" si="53"/>
         <v>-164.39999999999998</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M68" s="2">
         <f t="shared" si="54"/>
         <v>-221.09999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="2">
         <v>-69.900000000000006</v>
       </c>
-      <c r="C68" s="2">
-        <f>-241.1-B68</f>
+      <c r="C69" s="2">
+        <f>-241.1-B69</f>
         <v>-171.2</v>
       </c>
-      <c r="D68" s="2">
-        <f>-140.6-C68-B68</f>
+      <c r="D69" s="2">
+        <f>-140.6-C69-B69</f>
         <v>100.5</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E69" s="2">
         <f t="shared" si="52"/>
         <v>-102.4</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F69" s="2">
         <v>16.8</v>
       </c>
-      <c r="G68" s="2">
-        <f>-62.1-F68</f>
+      <c r="G69" s="2">
+        <f>-62.1-F69</f>
         <v>-78.900000000000006</v>
       </c>
-      <c r="H68" s="2">
-        <f>-79.7-G68-F68</f>
+      <c r="H69" s="2">
+        <f>-79.7-G69-F69</f>
         <v>-17.599999999999998</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="K68" s="8">
+      <c r="I69" s="2"/>
+      <c r="K69" s="8">
         <v>-243</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L69" s="2">
         <f t="shared" si="53"/>
         <v>-243</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M69" s="2">
         <f t="shared" si="54"/>
         <v>-79.7</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B70" s="2">
         <v>39.200000000000003</v>
       </c>
-      <c r="C69" s="2">
-        <f>1.2-B69</f>
+      <c r="C70" s="2">
+        <f>1.2-B70</f>
         <v>-38</v>
       </c>
-      <c r="D69" s="2">
-        <f>-56.1-C69-B69</f>
+      <c r="D70" s="2">
+        <f>-56.1-C70-B70</f>
         <v>-57.300000000000004</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E70" s="2">
         <f t="shared" si="52"/>
         <v>-135.5</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F70" s="2">
         <v>74.2</v>
       </c>
-      <c r="G69" s="2">
-        <f>59.8-F69</f>
+      <c r="G70" s="2">
+        <f>59.8-F70</f>
         <v>-14.400000000000006</v>
       </c>
-      <c r="H69" s="2">
-        <f>-77.4-G69-F69</f>
+      <c r="H70" s="2">
+        <f>-77.4-G70-F70</f>
         <v>-137.19999999999999</v>
       </c>
-      <c r="I69" s="2"/>
-      <c r="K69" s="8">
+      <c r="I70" s="2"/>
+      <c r="K70" s="8">
         <v>-191.6</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L70" s="2">
         <f t="shared" si="53"/>
         <v>-191.6</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M70" s="2">
         <f t="shared" si="54"/>
         <v>-77.399999999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>-155.9</v>
       </c>
-      <c r="C70" s="2">
-        <f>128.7-B70</f>
+      <c r="C71" s="2">
+        <f>128.7-B71</f>
         <v>284.60000000000002</v>
       </c>
-      <c r="D70" s="2">
-        <f>251.8-C70-B70</f>
+      <c r="D71" s="2">
+        <f>251.8-C71-B71</f>
         <v>123.1</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E71" s="2">
         <f t="shared" si="52"/>
         <v>314.69999999999993</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F71" s="2">
         <v>-358.2</v>
       </c>
-      <c r="G70" s="2">
-        <f>-178.5-F70</f>
+      <c r="G71" s="2">
+        <f>-178.5-F71</f>
         <v>179.7</v>
       </c>
-      <c r="H70" s="2">
-        <f>-286.2-G70-F70</f>
+      <c r="H71" s="2">
+        <f>-286.2-G71-F71</f>
         <v>-107.69999999999999</v>
       </c>
-      <c r="I70" s="2"/>
-      <c r="K70" s="8">
+      <c r="I71" s="2"/>
+      <c r="K71" s="8">
         <v>566.5</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L71" s="2">
         <f t="shared" si="53"/>
         <v>566.5</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M71" s="2">
         <f t="shared" si="54"/>
         <v>-286.2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="2">
         <v>33.1</v>
       </c>
-      <c r="C71" s="2">
-        <f>120.7-B71</f>
+      <c r="C72" s="2">
+        <f>120.7-B72</f>
         <v>87.6</v>
       </c>
-      <c r="D71" s="2">
-        <f>181.2-C71-B71</f>
+      <c r="D72" s="2">
+        <f>181.2-C72-B72</f>
         <v>60.499999999999993</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="2">
         <f t="shared" si="52"/>
         <v>182.40000000000003</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F72" s="2">
         <v>45.4</v>
       </c>
-      <c r="G71" s="2">
-        <f>84.8-F71</f>
+      <c r="G72" s="2">
+        <f>84.8-F72</f>
         <v>39.4</v>
       </c>
-      <c r="H71" s="2">
-        <f>105.7-G71-F71</f>
+      <c r="H72" s="2">
+        <f>105.7-G72-F72</f>
         <v>20.900000000000013</v>
       </c>
-      <c r="I71" s="2"/>
-      <c r="K71" s="8">
+      <c r="I72" s="2"/>
+      <c r="K72" s="8">
         <v>363.6</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L72" s="2">
         <f t="shared" si="53"/>
         <v>363.6</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M72" s="2">
         <f t="shared" si="54"/>
         <v>105.70000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="3">
-        <f>SUM(B58:B71)</f>
+      <c r="B73" s="3">
+        <f>SUM(B59:B72)</f>
         <v>-557.1</v>
       </c>
-      <c r="C72" s="3">
-        <f t="shared" ref="C72:G72" si="55">SUM(C58:C71)</f>
+      <c r="C73" s="3">
+        <f t="shared" ref="C73:G73" si="55">SUM(C59:C72)</f>
         <v>192.10000000000005</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <f t="shared" si="55"/>
         <v>567.69999999999993</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="3">
         <f t="shared" si="55"/>
         <v>900.40000000000009</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <f t="shared" si="55"/>
         <v>-370.00000000000006</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="3">
         <f t="shared" si="55"/>
         <v>235.5</v>
       </c>
-      <c r="H72" s="3">
-        <f t="shared" ref="H72" si="56">SUM(H58:H71)</f>
+      <c r="H73" s="3">
+        <f t="shared" ref="H73" si="56">SUM(H59:H72)</f>
         <v>26.500000000000064</v>
       </c>
-      <c r="I72" s="3">
-        <f t="shared" ref="I72:M72" si="57">SUM(I58:I71)</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="9">
+      <c r="I73" s="3">
+        <f t="shared" ref="I73:M73" si="57">SUM(I59:I72)</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="9">
         <f t="shared" si="57"/>
         <v>1103.0999999999999</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L73" s="3">
         <f t="shared" si="57"/>
         <v>1103.0999999999999</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M73" s="3">
         <f t="shared" si="57"/>
         <v>-107.99999999999986</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74"/>
-      <c r="B74" s="1" t="str">
-        <f t="shared" ref="B74:I74" si="58">B56</f>
+    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75"/>
+      <c r="B75" s="1" t="str">
+        <f t="shared" ref="B75:I75" si="58">B57</f>
         <v>Q123</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C75" s="1" t="str">
         <f t="shared" si="58"/>
         <v>Q223</v>
       </c>
-      <c r="D74" s="1" t="str">
+      <c r="D75" s="1" t="str">
         <f t="shared" si="58"/>
         <v>Q323</v>
       </c>
-      <c r="E74" s="1" t="str">
+      <c r="E75" s="1" t="str">
         <f t="shared" si="58"/>
         <v>Q423</v>
       </c>
-      <c r="F74" s="1" t="str">
+      <c r="F75" s="1" t="str">
         <f t="shared" si="58"/>
         <v>Q124</v>
       </c>
-      <c r="G74" s="1" t="str">
+      <c r="G75" s="1" t="str">
         <f t="shared" si="58"/>
         <v>Q224</v>
       </c>
-      <c r="H74" s="1" t="str">
+      <c r="H75" s="1" t="str">
         <f t="shared" si="58"/>
         <v>Q324</v>
       </c>
-      <c r="I74" s="1" t="str">
+      <c r="I75" s="1" t="str">
         <f t="shared" si="58"/>
         <v>Q424</v>
       </c>
-      <c r="K74" s="7">
-        <f>K56</f>
+      <c r="K75" s="7">
+        <f>K57</f>
         <v>2023</v>
       </c>
-      <c r="L74" s="1">
-        <f>L56</f>
+      <c r="L75" s="1">
+        <f>L57</f>
         <v>2023</v>
       </c>
-      <c r="M74" s="1">
-        <f>M56</f>
+      <c r="M75" s="1">
+        <f>M57</f>
         <v>2024</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K75" s="7"/>
-    </row>
     <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="4">
-        <f>B111/B95</f>
+      <c r="B77" s="4">
+        <f>B112/B96</f>
         <v>0.61773465537015804</v>
       </c>
-      <c r="C76" s="4">
-        <f t="shared" ref="C76:E76" si="59">C111/C95</f>
+      <c r="C77" s="4">
+        <f t="shared" ref="C77:E77" si="59">C112/C96</f>
         <v>0.63672985781990521</v>
       </c>
-      <c r="D76" s="4">
-        <f>D111/D95</f>
+      <c r="D77" s="4">
+        <f>D112/D96</f>
         <v>0.61628388438124937</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <f t="shared" si="59"/>
         <v>0.5922670122228838</v>
       </c>
-      <c r="F76" s="4">
-        <f>F111/F95</f>
+      <c r="F77" s="4">
+        <f>F112/F96</f>
         <v>0.64675463623395146</v>
       </c>
-      <c r="G76" s="4">
-        <f>G111/G95</f>
+      <c r="G77" s="4">
+        <f>G112/G96</f>
         <v>0.66306926343534922</v>
       </c>
-      <c r="H76" s="4">
-        <f t="shared" ref="H76:I76" si="60">H111/H95</f>
+      <c r="H77" s="4">
+        <f t="shared" ref="H77:I77" si="60">H112/H96</f>
         <v>0.66784878727751962</v>
       </c>
-      <c r="I76" s="4" t="e">
+      <c r="I77" s="4" t="e">
         <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K76" s="11">
-        <f t="shared" ref="K76" si="61">K111/K95</f>
+      <c r="K77" s="11">
+        <f t="shared" ref="K77" si="61">K112/K96</f>
         <v>0.5922670122228838</v>
       </c>
-      <c r="L76" s="4">
-        <f t="shared" ref="L76:M76" si="62">L111/L95</f>
+      <c r="L77" s="4">
+        <f t="shared" ref="L77:M77" si="62">L112/L96</f>
         <v>0.60872538785500874</v>
       </c>
-      <c r="M76" s="4" t="e">
+      <c r="M77" s="4" t="e">
         <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="4">
-        <f t="shared" ref="B77:I77" si="63">B86/B104</f>
+      <c r="B78" s="4">
+        <f t="shared" ref="B78:I78" si="63">B87/B105</f>
         <v>1.5884346058278747</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C78" s="4">
         <f t="shared" si="63"/>
         <v>1.5681944960952028</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D78" s="4">
         <f t="shared" si="63"/>
         <v>1.6205239008521279</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <f t="shared" si="63"/>
         <v>1.4598029284464498</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="4">
         <f t="shared" si="63"/>
         <v>1.9874204879901263</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <f t="shared" si="63"/>
         <v>1.5214162942591958</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="4">
         <f t="shared" si="63"/>
         <v>1.5277446788626432</v>
       </c>
-      <c r="I77" s="4" t="e">
+      <c r="I78" s="4" t="e">
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K77" s="11">
-        <f>K86/K104</f>
+      <c r="K78" s="11">
+        <f>K87/K105</f>
         <v>1.4598029284464498</v>
       </c>
-      <c r="L77" s="4">
-        <f>L86/L104</f>
+      <c r="L78" s="4">
+        <f>L87/L105</f>
         <v>1.4598029284464498</v>
       </c>
-      <c r="M77" s="4" t="e">
-        <f>M86/M104</f>
+      <c r="M78" s="4" t="e">
+        <f>M87/M105</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="3">
-        <f t="shared" ref="B78:I78" si="64">B86-B104</f>
+      <c r="B79" s="3">
+        <f t="shared" ref="B79:I79" si="64">B87-B105</f>
         <v>2344.5000000000009</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C79" s="3">
         <f t="shared" si="64"/>
         <v>2444.6000000000004</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="3">
         <f t="shared" si="64"/>
         <v>2556</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E79" s="3">
         <f t="shared" si="64"/>
         <v>1997.1999999999998</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="3">
         <f t="shared" si="64"/>
         <v>4160.2</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G79" s="3">
         <f t="shared" si="64"/>
         <v>2275.2000000000007</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H79" s="3">
         <f t="shared" si="64"/>
         <v>2258.7999999999993</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I79" s="3">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="K78" s="9">
-        <f>K86-K104</f>
+      <c r="K79" s="9">
+        <f>K87-K105</f>
         <v>1997.1999999999998</v>
       </c>
-      <c r="L78" s="3">
-        <f>L86-L104</f>
+      <c r="L79" s="3">
+        <f>L87-L105</f>
         <v>1997.1999999999998</v>
       </c>
-      <c r="M78" s="3">
-        <f>M86-M104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="M79" s="3">
+        <f>M87-M105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="2">
-        <v>558.70000000000005</v>
-      </c>
-      <c r="C81" s="2">
-        <v>463.5</v>
-      </c>
-      <c r="D81" s="2">
-        <v>680.7</v>
-      </c>
-      <c r="E81" s="2">
-        <v>595.5</v>
-      </c>
-      <c r="F81" s="2">
-        <v>2455.8000000000002</v>
-      </c>
-      <c r="G81" s="2">
-        <v>657.3</v>
-      </c>
-      <c r="H81" s="2">
-        <v>622.6</v>
-      </c>
-      <c r="I81" s="2"/>
-      <c r="K81" s="8">
-        <v>595.5</v>
-      </c>
-      <c r="L81" s="2">
-        <f>E81</f>
-        <v>595.5</v>
-      </c>
-      <c r="M81" s="2"/>
+      <c r="K81" s="7"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="2">
-        <v>1530.7</v>
+        <v>558.70000000000005</v>
       </c>
       <c r="C82" s="2">
-        <v>1706.4</v>
+        <v>463.5</v>
       </c>
       <c r="D82" s="2">
-        <v>1643.9</v>
+        <v>680.7</v>
       </c>
       <c r="E82" s="2">
-        <v>1605.3</v>
+        <v>595.5</v>
       </c>
       <c r="F82" s="2">
-        <v>1542.2</v>
+        <v>2455.8000000000002</v>
       </c>
       <c r="G82" s="2">
-        <v>1465.9</v>
+        <v>657.3</v>
       </c>
       <c r="H82" s="2">
-        <v>1448.4</v>
+        <v>622.6</v>
       </c>
       <c r="I82" s="2"/>
       <c r="K82" s="8">
-        <v>1605.3</v>
+        <v>595.5</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" ref="L82:L85" si="65">E82</f>
-        <v>1605.3</v>
+        <f>E82</f>
+        <v>595.5</v>
       </c>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="2">
-        <v>3642.8</v>
+        <v>1530.7</v>
       </c>
       <c r="C83" s="2">
-        <v>3829.9</v>
+        <v>1706.4</v>
       </c>
       <c r="D83" s="2">
-        <v>3726</v>
+        <v>1643.9</v>
       </c>
       <c r="E83" s="2">
-        <v>3440.7</v>
+        <v>1605.3</v>
       </c>
       <c r="F83" s="2">
-        <v>3781.2</v>
+        <v>1542.2</v>
       </c>
       <c r="G83" s="2">
-        <v>3499.4</v>
+        <v>1465.9</v>
       </c>
       <c r="H83" s="2">
-        <v>3443.2</v>
+        <v>1448.4</v>
       </c>
       <c r="I83" s="2"/>
       <c r="K83" s="8">
+        <v>1605.3</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" ref="L83:L86" si="65">E83</f>
+        <v>1605.3</v>
+      </c>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" s="2">
+        <v>3642.8</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3829.9</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3726</v>
+      </c>
+      <c r="E84" s="2">
         <v>3440.7</v>
       </c>
-      <c r="L83" s="2">
+      <c r="F84" s="2">
+        <v>3781.2</v>
+      </c>
+      <c r="G84" s="2">
+        <v>3499.4</v>
+      </c>
+      <c r="H84" s="2">
+        <v>3443.2</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="K84" s="8">
+        <v>3440.7</v>
+      </c>
+      <c r="L84" s="2">
         <f t="shared" si="65"/>
         <v>3440.7</v>
       </c>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B85" s="2">
         <v>596.6</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C85" s="2">
         <v>747.2</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D85" s="2">
         <v>624.5</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E85" s="2">
         <v>699.3</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F85" s="2">
         <v>594.20000000000005</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G85" s="2">
         <v>583.1</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H85" s="2">
         <v>607.70000000000005</v>
       </c>
-      <c r="I84" s="2"/>
-      <c r="K84" s="8">
+      <c r="I85" s="2"/>
+      <c r="K85" s="8">
         <v>699.3</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L85" s="2">
         <f t="shared" si="65"/>
         <v>699.3</v>
       </c>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="2">
-        <v>0</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0</v>
-      </c>
-      <c r="F85" s="2">
-        <v>0</v>
-      </c>
-      <c r="G85" s="6">
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
         <v>433</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H86" s="6">
         <v>417</v>
       </c>
-      <c r="I85" s="2"/>
-      <c r="K85" s="8">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2">
+      <c r="I86" s="2"/>
+      <c r="K86" s="8">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="3">
-        <f t="shared" ref="B86:D86" si="66">SUM(B81:B85)</f>
+      <c r="B87" s="3">
+        <f t="shared" ref="B87:D87" si="66">SUM(B82:B86)</f>
         <v>6328.8000000000011</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C87" s="3">
         <f t="shared" si="66"/>
         <v>6747</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D87" s="3">
         <f t="shared" si="66"/>
         <v>6675.1</v>
       </c>
-      <c r="E86" s="3">
-        <f>SUM(E81:E85)</f>
+      <c r="E87" s="3">
+        <f>SUM(E82:E86)</f>
         <v>6340.8</v>
       </c>
-      <c r="F86" s="3">
-        <f>SUM(F81:F85)</f>
+      <c r="F87" s="3">
+        <f>SUM(F82:F86)</f>
         <v>8373.4</v>
       </c>
-      <c r="G86" s="3">
-        <f>SUM(G81:G85)</f>
+      <c r="G87" s="3">
+        <f>SUM(G82:G86)</f>
         <v>6638.7000000000007</v>
       </c>
-      <c r="H86" s="3">
-        <f t="shared" ref="H86:I86" si="67">SUM(H81:H85)</f>
+      <c r="H87" s="3">
+        <f t="shared" ref="H87:I87" si="67">SUM(H82:H86)</f>
         <v>6538.9</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I87" s="3">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="K86" s="9">
-        <f>SUM(K81:K85)</f>
+      <c r="K87" s="9">
+        <f>SUM(K82:K86)</f>
         <v>6340.8</v>
       </c>
-      <c r="L86" s="3">
-        <f>SUM(L81:L85)</f>
+      <c r="L87" s="3">
+        <f>SUM(L82:L86)</f>
         <v>6340.8</v>
       </c>
-      <c r="M86" s="3">
-        <f>SUM(M81:M85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>74</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1668.7</v>
-      </c>
-      <c r="C87" s="2">
-        <v>1738.6</v>
-      </c>
-      <c r="D87" s="2">
-        <v>1750.4</v>
-      </c>
-      <c r="E87" s="2">
-        <v>1920.9</v>
-      </c>
-      <c r="F87" s="2">
-        <v>1886.7</v>
-      </c>
-      <c r="G87" s="2">
-        <v>1802.1</v>
-      </c>
-      <c r="H87" s="2">
-        <v>1880.6</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="K87" s="8">
-        <v>1920.9</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" ref="L87:L91" si="68">E87</f>
-        <v>1920.9</v>
-      </c>
-      <c r="M87" s="2"/>
+      <c r="M87" s="3">
+        <f>SUM(M82:M86)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B88" s="2">
-        <v>160.80000000000001</v>
+        <v>1668.7</v>
       </c>
       <c r="C88" s="2">
-        <v>170.8</v>
+        <v>1738.6</v>
       </c>
       <c r="D88" s="2">
-        <v>167.3</v>
+        <v>1750.4</v>
       </c>
       <c r="E88" s="2">
-        <v>176.2</v>
+        <v>1920.9</v>
       </c>
       <c r="F88" s="2">
-        <v>175</v>
+        <v>1886.7</v>
       </c>
       <c r="G88" s="2">
-        <v>168.4</v>
+        <v>1802.1</v>
       </c>
       <c r="H88" s="2">
-        <v>171.8</v>
+        <v>1880.6</v>
       </c>
       <c r="I88" s="2"/>
       <c r="K88" s="8">
+        <v>1920.9</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" ref="L88:L92" si="68">E88</f>
+        <v>1920.9</v>
+      </c>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="2">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="C89" s="2">
+        <v>170.8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>167.3</v>
+      </c>
+      <c r="E89" s="2">
         <v>176.2</v>
       </c>
-      <c r="L88" s="2">
+      <c r="F89" s="2">
+        <v>175</v>
+      </c>
+      <c r="G89" s="2">
+        <v>168.4</v>
+      </c>
+      <c r="H89" s="2">
+        <v>171.8</v>
+      </c>
+      <c r="I89" s="2"/>
+      <c r="K89" s="8">
+        <v>176.2</v>
+      </c>
+      <c r="L89" s="2">
         <f t="shared" si="68"/>
         <v>176.2</v>
       </c>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B90" s="2">
         <v>456.5</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="2">
         <v>507.2</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D90" s="2">
         <v>512.20000000000005</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E90" s="2">
         <v>512.70000000000005</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F90" s="2">
         <v>520.5</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G90" s="2">
         <v>518.29999999999995</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H90" s="2">
         <v>551.5</v>
       </c>
-      <c r="I89" s="2"/>
-      <c r="K89" s="8">
+      <c r="I90" s="2"/>
+      <c r="K90" s="8">
         <v>512.70000000000005</v>
       </c>
-      <c r="L89" s="2">
+      <c r="L90" s="2">
         <f t="shared" si="68"/>
         <v>512.70000000000005</v>
       </c>
-      <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B91" s="2">
         <v>232.9</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>260.3</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D91" s="2">
         <v>299.60000000000002</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E91" s="2">
         <v>481.6</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F91" s="2">
         <v>489.8</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G91" s="2">
         <v>499</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H91" s="2">
         <v>507.3</v>
       </c>
-      <c r="I90" s="2"/>
-      <c r="K90" s="8">
+      <c r="I91" s="2"/>
+      <c r="K91" s="8">
         <v>481.6</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L91" s="2">
         <f t="shared" si="68"/>
         <v>481.6</v>
       </c>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>58</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B92" s="2">
         <v>287.39999999999998</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>302.10000000000002</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D92" s="2">
         <v>315.2</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E92" s="2">
         <v>346.8</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F92" s="2">
         <v>396.4</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G92" s="2">
         <v>442.3</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H92" s="2">
         <v>450.5</v>
       </c>
-      <c r="I91" s="2"/>
-      <c r="K91" s="8">
+      <c r="I92" s="2"/>
+      <c r="K92" s="8">
         <v>346.8</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L92" s="2">
         <f t="shared" si="68"/>
         <v>346.8</v>
       </c>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="2">
-        <v>0</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2">
-        <v>0</v>
-      </c>
-      <c r="G92" s="6">
-        <v>448.3</v>
-      </c>
-      <c r="H92" s="6">
-        <v>459</v>
-      </c>
-      <c r="I92" s="2"/>
-      <c r="K92" s="8">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2">
-        <f>E94</f>
-        <v>1333.4</v>
-      </c>
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="C93" s="2">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="D93" s="2">
-        <v>322.8</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="F93" s="2">
-        <v>291.60000000000002</v>
-      </c>
-      <c r="G93" s="2">
-        <v>689.9</v>
-      </c>
-      <c r="H93" s="2">
-        <v>588.79999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="G93" s="6">
+        <v>448.3</v>
+      </c>
+      <c r="H93" s="6">
+        <v>459</v>
       </c>
       <c r="I93" s="2"/>
       <c r="K93" s="8">
-        <v>308.8</v>
+        <v>0</v>
       </c>
       <c r="L93" s="2">
-        <f>E92</f>
-        <v>0</v>
+        <f>E95</f>
+        <v>1333.4</v>
       </c>
       <c r="M93" s="2"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" s="2">
-        <v>1322.5</v>
+        <v>354</v>
       </c>
       <c r="C94" s="2">
-        <v>1327</v>
+        <v>341</v>
       </c>
       <c r="D94" s="2">
-        <v>1308.5</v>
+        <v>322.8</v>
       </c>
       <c r="E94" s="2">
-        <v>1333.4</v>
+        <v>308.8</v>
       </c>
       <c r="F94" s="2">
-        <v>1325.8</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="G94" s="2">
-        <v>2451</v>
+        <v>689.9</v>
       </c>
       <c r="H94" s="2">
-        <v>2358.4</v>
+        <v>588.79999999999995</v>
       </c>
       <c r="I94" s="2"/>
       <c r="K94" s="8">
+        <v>308.8</v>
+      </c>
+      <c r="L94" s="2">
+        <f>E93</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1322.5</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1327</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1308.5</v>
+      </c>
+      <c r="E95" s="2">
         <v>1333.4</v>
       </c>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="F95" s="2">
+        <v>1325.8</v>
+      </c>
+      <c r="G95" s="2">
+        <v>2451</v>
+      </c>
+      <c r="H95" s="2">
+        <v>2358.4</v>
+      </c>
+      <c r="I95" s="2"/>
+      <c r="K95" s="8">
+        <v>1333.4</v>
+      </c>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="3">
-        <f t="shared" ref="B95:H95" si="69">SUM(B86:B94)</f>
+      <c r="B96" s="3">
+        <f t="shared" ref="B96:H96" si="69">SUM(B87:B95)</f>
         <v>10811.6</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C96" s="3">
         <f t="shared" si="69"/>
         <v>11394</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D96" s="3">
         <f t="shared" si="69"/>
         <v>11351.1</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E96" s="3">
         <f t="shared" si="69"/>
         <v>11421.2</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F96" s="3">
         <f t="shared" si="69"/>
         <v>13459.199999999999</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G96" s="3">
         <f t="shared" si="69"/>
         <v>13657.999999999998</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H96" s="3">
         <f t="shared" si="69"/>
         <v>13506.799999999997</v>
       </c>
-      <c r="I95" s="3">
-        <f>SUM(I86:I92)</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="9">
-        <f>SUM(K86:K94)</f>
+      <c r="I96" s="3">
+        <f>SUM(I87:I93)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="9">
+        <f>SUM(K87:K95)</f>
         <v>11421.2</v>
       </c>
-      <c r="L95" s="3">
-        <f>SUM(L86:L92)</f>
+      <c r="L96" s="3">
+        <f>SUM(L87:L93)</f>
         <v>11112.400000000001</v>
       </c>
-      <c r="M95" s="3">
-        <f>SUM(M86:M92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="M96" s="3">
+        <f>SUM(M87:M93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>132</v>
-      </c>
-      <c r="B98" s="2">
-        <v>190.6</v>
-      </c>
-      <c r="C98" s="2">
-        <v>191.1</v>
-      </c>
-      <c r="D98" s="2">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="E98" s="2">
-        <v>15</v>
-      </c>
-      <c r="F98" s="2">
-        <v>300.39999999999998</v>
-      </c>
-      <c r="G98" s="2">
-        <v>320.2</v>
-      </c>
-      <c r="H98" s="2">
-        <v>412.3</v>
-      </c>
-      <c r="I98" s="2"/>
-      <c r="K98" s="8">
-        <v>15</v>
-      </c>
-      <c r="L98" s="2">
-        <f t="shared" ref="L98:L103" si="70">E98</f>
-        <v>15</v>
-      </c>
-      <c r="M98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2">
-        <v>4.9000000000000004</v>
+        <v>190.6</v>
       </c>
       <c r="C99" s="2">
-        <v>56</v>
+        <v>191.1</v>
       </c>
       <c r="D99" s="2">
-        <v>25.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E99" s="2">
-        <v>0</v>
-      </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F99" s="2">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="G99" s="2">
+        <v>320.2</v>
+      </c>
+      <c r="H99" s="2">
+        <v>412.3</v>
+      </c>
       <c r="I99" s="2"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="2"/>
+      <c r="K99" s="8">
+        <v>15</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" ref="L99:L104" si="70">E99</f>
+        <v>15</v>
+      </c>
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C100" s="2">
+        <v>56</v>
+      </c>
+      <c r="D100" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B101" s="2">
         <v>1426.6</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C101" s="2">
         <v>1391</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D101" s="2">
         <v>1308.4000000000001</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E101" s="2">
         <v>1207.3</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F101" s="2">
         <v>1238</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G101" s="2">
         <v>1075.7</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H101" s="2">
         <v>961.1</v>
       </c>
-      <c r="I100" s="2"/>
-      <c r="K100" s="8">
+      <c r="I101" s="2"/>
+      <c r="K101" s="8">
         <v>1207.3</v>
       </c>
-      <c r="L100" s="2">
+      <c r="L101" s="2">
         <f t="shared" si="70"/>
         <v>1207.3</v>
       </c>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B102" s="2">
         <v>2144.3000000000002</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C102" s="2">
         <v>2445.4</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D102" s="2">
         <v>2507.3000000000002</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E102" s="2">
         <v>2903.8</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F102" s="2">
         <v>2489.1999999999998</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G102" s="2">
         <v>2543.1</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H102" s="2">
         <v>2508.8000000000002</v>
       </c>
-      <c r="I101" s="2"/>
-      <c r="K101" s="8">
+      <c r="I102" s="2"/>
+      <c r="K102" s="8">
         <v>2903.8</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L102" s="2">
         <f t="shared" si="70"/>
         <v>2903.8</v>
       </c>
-      <c r="M101" s="2"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B103" s="2">
         <v>217.9</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="2">
         <v>218.9</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D103" s="2">
         <v>197.6</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E103" s="2">
         <v>217.5</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F103" s="2">
         <v>185.6</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G103" s="2">
         <v>154.19999999999999</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H103" s="2">
         <v>138.30000000000001</v>
       </c>
-      <c r="I102" s="2"/>
-      <c r="K102" s="8">
+      <c r="I103" s="2"/>
+      <c r="K103" s="8">
         <v>217.5</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L103" s="2">
         <f t="shared" si="70"/>
         <v>217.5</v>
       </c>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>124</v>
       </c>
-      <c r="B103" s="2">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>0</v>
-      </c>
-      <c r="F103" s="2">
-        <v>0</v>
-      </c>
-      <c r="G103" s="6">
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
+      <c r="G104" s="6">
         <v>270.3</v>
       </c>
-      <c r="H103" s="6">
+      <c r="H104" s="6">
         <v>259.60000000000002</v>
       </c>
-      <c r="I103" s="2"/>
-      <c r="K103" s="8">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2">
+      <c r="I104" s="2"/>
+      <c r="K104" s="8">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="3">
-        <f t="shared" ref="B104:D104" si="71">SUM(B98:B103)</f>
+      <c r="B105" s="3">
+        <f t="shared" ref="B105:D105" si="71">SUM(B99:B104)</f>
         <v>3984.3</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C105" s="3">
         <f t="shared" si="71"/>
         <v>4302.3999999999996</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D105" s="3">
         <f t="shared" si="71"/>
         <v>4119.1000000000004</v>
       </c>
-      <c r="E104" s="3">
-        <f>SUM(E98:E103)</f>
+      <c r="E105" s="3">
+        <f>SUM(E99:E104)</f>
         <v>4343.6000000000004</v>
       </c>
-      <c r="F104" s="3">
-        <f>SUM(F98:F103)</f>
+      <c r="F105" s="3">
+        <f>SUM(F99:F104)</f>
         <v>4213.2</v>
       </c>
-      <c r="G104" s="3">
-        <f>SUM(G98:G103)</f>
+      <c r="G105" s="3">
+        <f>SUM(G99:G104)</f>
         <v>4363.5</v>
       </c>
-      <c r="H104" s="3">
-        <f t="shared" ref="H104:I104" si="72">SUM(H98:H103)</f>
+      <c r="H105" s="3">
+        <f t="shared" ref="H105:I105" si="72">SUM(H99:H104)</f>
         <v>4280.1000000000004</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I105" s="3">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K104" s="9">
-        <f>SUM(K98:K103)</f>
+      <c r="K105" s="9">
+        <f>SUM(K99:K104)</f>
         <v>4343.6000000000004</v>
       </c>
-      <c r="L104" s="3">
-        <f>SUM(L98:L103)</f>
+      <c r="L105" s="3">
+        <f>SUM(L99:L104)</f>
         <v>4343.6000000000004</v>
       </c>
-      <c r="M104" s="3">
-        <f>SUM(M98:M103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>86</v>
-      </c>
-      <c r="B105" s="2">
-        <v>1791.1</v>
-      </c>
-      <c r="C105" s="2">
-        <v>2014.2</v>
-      </c>
-      <c r="D105" s="2">
-        <v>1919.7</v>
-      </c>
-      <c r="E105" s="2">
-        <v>1377.2</v>
-      </c>
-      <c r="F105" s="2">
-        <v>3425.7</v>
-      </c>
-      <c r="G105" s="6">
-        <v>3595.2</v>
-      </c>
-      <c r="H105" s="2">
-        <v>3610</v>
-      </c>
-      <c r="I105" s="2"/>
-      <c r="K105" s="8">
-        <v>1377.2</v>
-      </c>
-      <c r="L105" s="2">
-        <f t="shared" ref="L105:L112" si="73">E105</f>
-        <v>1377.2</v>
-      </c>
-      <c r="M105" s="2"/>
+      <c r="M105" s="3">
+        <f>SUM(M99:M104)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106" s="2">
-        <v>122.3</v>
+        <v>1791.1</v>
       </c>
       <c r="C106" s="2">
-        <v>130.80000000000001</v>
+        <v>2014.2</v>
       </c>
       <c r="D106" s="2">
-        <v>128.19999999999999</v>
+        <v>1919.7</v>
       </c>
       <c r="E106" s="2">
-        <v>134.4</v>
+        <v>1377.2</v>
       </c>
       <c r="F106" s="2">
-        <v>133</v>
-      </c>
-      <c r="G106" s="2">
-        <v>127.4</v>
+        <v>3425.7</v>
+      </c>
+      <c r="G106" s="6">
+        <v>3595.2</v>
       </c>
       <c r="H106" s="2">
-        <v>129</v>
+        <v>3610</v>
       </c>
       <c r="I106" s="2"/>
       <c r="K106" s="8">
+        <v>1377.2</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" ref="L106:L113" si="73">E106</f>
+        <v>1377.2</v>
+      </c>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="2">
+        <v>122.3</v>
+      </c>
+      <c r="C107" s="2">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="D107" s="2">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="E107" s="2">
         <v>134.4</v>
       </c>
-      <c r="L106" s="2">
+      <c r="F107" s="2">
+        <v>133</v>
+      </c>
+      <c r="G107" s="2">
+        <v>127.4</v>
+      </c>
+      <c r="H107" s="2">
+        <v>129</v>
+      </c>
+      <c r="I107" s="2"/>
+      <c r="K107" s="8">
+        <v>134.4</v>
+      </c>
+      <c r="L107" s="2">
         <f t="shared" si="73"/>
         <v>134.4</v>
       </c>
-      <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>88</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B108" s="2">
         <v>160.1</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C108" s="2">
         <v>161.19999999999999</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D108" s="2">
         <v>159.4</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E108" s="2">
         <v>170.5</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F108" s="2">
         <v>167.9</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G108" s="2">
         <v>164.7</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H108" s="2">
         <v>167.9</v>
       </c>
-      <c r="I107" s="2"/>
-      <c r="K107" s="8">
+      <c r="I108" s="2"/>
+      <c r="K108" s="8">
         <v>170.5</v>
       </c>
-      <c r="L107" s="2">
+      <c r="L108" s="2">
         <f t="shared" si="73"/>
         <v>170.5</v>
       </c>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B109" s="2">
         <v>115.3</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C109" s="2">
         <v>116.1</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D109" s="2">
         <v>112.5</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E109" s="2">
         <v>122.6</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F109" s="2">
         <v>119.5</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G109" s="2">
         <v>111.5</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H109" s="2">
         <v>120.4</v>
       </c>
-      <c r="I108" s="2"/>
-      <c r="K108" s="8">
+      <c r="I109" s="2"/>
+      <c r="K109" s="8">
         <v>122.6</v>
       </c>
-      <c r="L108" s="2">
+      <c r="L109" s="2">
         <f t="shared" si="73"/>
         <v>122.6</v>
       </c>
-      <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B110" s="2">
         <v>505.6</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C110" s="2">
         <v>530.20000000000005</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D110" s="2">
         <v>556.6</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E110" s="2">
         <v>616.1</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F110" s="2">
         <v>645.5</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G110" s="2">
         <v>666</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H110" s="2">
         <v>686.2</v>
       </c>
-      <c r="I109" s="2"/>
-      <c r="K109" s="8">
+      <c r="I110" s="2"/>
+      <c r="K110" s="8">
         <v>616.1</v>
       </c>
-      <c r="L109" s="2">
+      <c r="L110" s="2">
         <f t="shared" si="73"/>
         <v>616.1</v>
       </c>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>125</v>
       </c>
-      <c r="B110" s="2">
-        <v>0</v>
-      </c>
-      <c r="C110" s="2">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
-        <v>0</v>
-      </c>
-      <c r="F110" s="2">
-        <v>0</v>
-      </c>
-      <c r="G110" s="6">
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6">
         <v>27.9</v>
       </c>
-      <c r="H110" s="6">
+      <c r="H111" s="6">
         <v>26.9</v>
       </c>
-      <c r="I110" s="2"/>
-      <c r="K110" s="8">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2">
+      <c r="I111" s="2"/>
+      <c r="K111" s="8">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B111" s="3">
-        <f t="shared" ref="B111:F111" si="74">SUM(B104:B110)</f>
+      <c r="B112" s="3">
+        <f t="shared" ref="B112:F112" si="74">SUM(B105:B111)</f>
         <v>6678.7000000000007</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C112" s="3">
         <f t="shared" si="74"/>
         <v>7254.9</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D112" s="3">
         <f t="shared" si="74"/>
         <v>6995.5</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E112" s="3">
         <f t="shared" si="74"/>
         <v>6764.4000000000005</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F112" s="3">
         <f t="shared" si="74"/>
         <v>8704.7999999999993</v>
       </c>
-      <c r="G111" s="3">
-        <f>SUM(G104:G110)</f>
+      <c r="G112" s="3">
+        <f>SUM(G105:G111)</f>
         <v>9056.1999999999989</v>
       </c>
-      <c r="H111" s="3">
-        <f t="shared" ref="H111:I111" si="75">SUM(H104:H110)</f>
+      <c r="H112" s="3">
+        <f t="shared" ref="H112:I112" si="75">SUM(H105:H111)</f>
         <v>9020.5</v>
       </c>
-      <c r="I111" s="3">
+      <c r="I112" s="3">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="K111" s="9">
-        <f t="shared" ref="K111" si="76">SUM(K104:K110)</f>
+      <c r="K112" s="9">
+        <f t="shared" ref="K112" si="76">SUM(K105:K111)</f>
         <v>6764.4000000000005</v>
       </c>
-      <c r="L111" s="3">
-        <f t="shared" ref="L111" si="77">SUM(L104:L110)</f>
+      <c r="L112" s="3">
+        <f t="shared" ref="L112" si="77">SUM(L105:L111)</f>
         <v>6764.4000000000005</v>
       </c>
-      <c r="M111" s="3">
-        <f t="shared" ref="M111" si="78">SUM(M104:M110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="M112" s="3">
+        <f t="shared" ref="M112" si="78">SUM(M105:M111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="2">
-        <v>0</v>
-      </c>
-      <c r="C112" s="2">
-        <v>0</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2">
-        <v>0</v>
-      </c>
-      <c r="G112" s="6">
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+      <c r="G113" s="6">
         <v>548.4</v>
       </c>
-      <c r="H112" s="6">
+      <c r="H113" s="6">
         <v>337.5</v>
       </c>
-      <c r="I112" s="2"/>
-      <c r="K112" s="8">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2">
+      <c r="I113" s="2"/>
+      <c r="K113" s="8">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="M112" s="2"/>
-    </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
+      <c r="M113" s="2"/>
+    </row>
+    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K114" s="7"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115" s="2">
-        <v>0</v>
-      </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2">
-        <v>0</v>
-      </c>
-      <c r="F115" s="2">
-        <v>0</v>
-      </c>
-      <c r="G115" s="2">
-        <v>0</v>
-      </c>
-      <c r="H115" s="2">
-        <v>0</v>
-      </c>
-      <c r="I115" s="2"/>
-      <c r="K115" s="8">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2">
-        <f t="shared" ref="L115:L119" si="79">E115</f>
-        <v>0</v>
-      </c>
-      <c r="M115" s="2">
-        <f t="shared" ref="M115:M119" si="80">SUM(F115:I115)</f>
-        <v>0</v>
-      </c>
+      <c r="K115" s="7"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B116" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C116" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D116" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E116" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F116" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G116" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H116" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I116" s="2"/>
       <c r="K116" s="8">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" ref="L116:L120" si="79">E116</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="2">
+        <f t="shared" ref="M116:M120" si="80">SUM(F116:I116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>94</v>
+      </c>
+      <c r="B117" s="2">
         <v>0.7</v>
       </c>
-      <c r="L116" s="2">
+      <c r="C117" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="K117" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L117" s="2">
         <f t="shared" si="79"/>
         <v>0.7</v>
       </c>
-      <c r="M116" s="2">
+      <c r="M117" s="2">
         <f t="shared" si="80"/>
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>95</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B118" s="2">
         <v>24.7</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C118" s="2">
         <v>36.1</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D118" s="2">
         <v>46</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E118" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F117" s="2">
-        <v>0</v>
-      </c>
-      <c r="G117" s="2">
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+      <c r="G118" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H118" s="2">
         <v>12.4</v>
       </c>
-      <c r="I117" s="2"/>
-      <c r="K117" s="8">
+      <c r="I118" s="2"/>
+      <c r="K118" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L117" s="2">
+      <c r="L118" s="2">
         <f t="shared" si="79"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="M117" s="2">
+      <c r="M118" s="2">
         <f t="shared" si="80"/>
         <v>21.6</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>96</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B119" s="2">
         <v>5863.7</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C119" s="2">
         <v>5786.8</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D119" s="2">
         <v>6045.7</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E119" s="2">
         <v>6360</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F119" s="2">
         <v>6505.9</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G119" s="2">
         <v>5930.6</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H119" s="2">
         <v>5938.9</v>
       </c>
-      <c r="I118" s="2"/>
-      <c r="K118" s="8">
+      <c r="I119" s="2"/>
+      <c r="K119" s="8">
         <v>6360</v>
       </c>
-      <c r="L118" s="2">
+      <c r="L119" s="2">
         <f t="shared" si="79"/>
         <v>6360</v>
       </c>
-      <c r="M118" s="2">
+      <c r="M119" s="2">
         <f t="shared" si="80"/>
         <v>18375.400000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B120" s="2">
         <v>-1756.4</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C120" s="2">
         <v>-1684.8</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D120" s="2">
         <v>-1736.9</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E120" s="2">
         <v>-1708.1</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F120" s="2">
         <v>-1751.5</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G120" s="2">
         <v>-1886.7</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H120" s="2">
         <v>-1803.2</v>
       </c>
-      <c r="I119" s="2"/>
-      <c r="K119" s="8">
+      <c r="I120" s="2"/>
+      <c r="K120" s="8">
         <v>-1708.1</v>
       </c>
-      <c r="L119" s="2">
+      <c r="L120" s="2">
         <f t="shared" si="79"/>
         <v>-1708.1</v>
       </c>
-      <c r="M119" s="2">
+      <c r="M120" s="2">
         <f t="shared" si="80"/>
         <v>-5441.4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B120" s="3">
-        <f t="shared" ref="B120:G120" si="81">SUM(B115:B119)</f>
+      <c r="B121" s="3">
+        <f t="shared" ref="B121:G121" si="81">SUM(B116:B120)</f>
         <v>4132.6999999999989</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C121" s="3">
         <f t="shared" si="81"/>
         <v>4138.8</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D121" s="3">
         <f t="shared" si="81"/>
         <v>4355.5</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E121" s="3">
         <f t="shared" si="81"/>
         <v>4656.7000000000007</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F121" s="3">
         <f t="shared" si="81"/>
         <v>4755.0999999999995</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G121" s="3">
         <f t="shared" si="81"/>
         <v>4053.8</v>
       </c>
-      <c r="H120" s="3">
-        <f t="shared" ref="H120:M120" si="82">SUM(H115:H119)</f>
+      <c r="H121" s="3">
+        <f t="shared" ref="H121:M121" si="82">SUM(H116:H120)</f>
         <v>4148.8</v>
       </c>
-      <c r="I120" s="3">
+      <c r="I121" s="3">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="K120" s="9">
-        <f>SUM(K115:K119)</f>
+      <c r="K121" s="9">
+        <f>SUM(K116:K120)</f>
         <v>4656.7000000000007</v>
       </c>
-      <c r="L120" s="3">
+      <c r="L121" s="3">
         <f t="shared" si="82"/>
         <v>4656.7000000000007</v>
       </c>
-      <c r="M120" s="3">
+      <c r="M121" s="3">
         <f t="shared" si="82"/>
         <v>12957.700000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B122" s="2">
         <v>0.2</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C122" s="2">
         <v>0.2</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D122" s="2">
         <v>0.1</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E122" s="2">
         <v>0.1</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F122" s="2">
         <v>0.1</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G122" s="2">
         <v>0.1</v>
       </c>
-      <c r="H121" s="2">
-        <v>0</v>
-      </c>
-      <c r="I121" s="2"/>
-      <c r="K121" s="8">
+      <c r="H122" s="2">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2"/>
+      <c r="K122" s="8">
         <v>0.1</v>
       </c>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B122" s="3">
-        <f t="shared" ref="B122:G122" si="83">SUM(B120:B121)</f>
+      <c r="B123" s="3">
+        <f t="shared" ref="B123:G123" si="83">SUM(B121:B122)</f>
         <v>4132.8999999999987</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C123" s="3">
         <f t="shared" si="83"/>
         <v>4139</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D123" s="3">
         <f t="shared" si="83"/>
         <v>4355.6000000000004</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E123" s="3">
         <f t="shared" si="83"/>
         <v>4656.8000000000011</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F123" s="3">
         <f t="shared" si="83"/>
         <v>4755.2</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G123" s="3">
         <f t="shared" si="83"/>
         <v>4053.9</v>
       </c>
-      <c r="H122" s="3">
-        <f t="shared" ref="H122:M122" si="84">SUM(H120:H121)</f>
+      <c r="H123" s="3">
+        <f t="shared" ref="H123:M123" si="84">SUM(H121:H122)</f>
         <v>4148.8</v>
       </c>
-      <c r="I122" s="3">
+      <c r="I123" s="3">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="K122" s="9">
-        <f>SUM(K120:K121)</f>
+      <c r="K123" s="9">
+        <f>SUM(K121:K122)</f>
         <v>4656.8000000000011</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L123" s="3">
         <f t="shared" si="84"/>
         <v>4656.7000000000007</v>
       </c>
-      <c r="M122" s="3">
+      <c r="M123" s="3">
         <f t="shared" si="84"/>
         <v>12957.700000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B123" s="3">
-        <f t="shared" ref="B123:F123" si="85">B122+B111+B112</f>
+      <c r="B124" s="3">
+        <f t="shared" ref="B124:F124" si="85">B123+B112+B113</f>
         <v>10811.599999999999</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C124" s="3">
         <f t="shared" si="85"/>
         <v>11393.9</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D124" s="3">
         <f t="shared" si="85"/>
         <v>11351.1</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E124" s="3">
         <f t="shared" si="85"/>
         <v>11421.2</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F124" s="3">
         <f t="shared" si="85"/>
         <v>13460</v>
       </c>
-      <c r="G123" s="3">
-        <f>G122+G111+G112</f>
+      <c r="G124" s="3">
+        <f>G123+G112+G113</f>
         <v>13658.499999999998</v>
       </c>
-      <c r="H123" s="3">
-        <f>H122+H111+H112</f>
+      <c r="H124" s="3">
+        <f>H123+H112+H113</f>
         <v>13506.8</v>
       </c>
-      <c r="I123" s="3">
-        <f t="shared" ref="I123:M123" si="86">I122+I111</f>
-        <v>0</v>
-      </c>
-      <c r="K123" s="9">
-        <f t="shared" ref="K123" si="87">K122+K111+K112</f>
+      <c r="I124" s="3">
+        <f t="shared" ref="I124:M124" si="86">I123+I112</f>
+        <v>0</v>
+      </c>
+      <c r="K124" s="9">
+        <f t="shared" ref="K124" si="87">K123+K112+K113</f>
         <v>11421.2</v>
       </c>
-      <c r="L123" s="3">
+      <c r="L124" s="3">
         <f t="shared" si="86"/>
         <v>11421.100000000002</v>
       </c>
-      <c r="M123" s="3">
+      <c r="M124" s="3">
         <f t="shared" si="86"/>
         <v>12957.700000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-    </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>103</v>
-      </c>
-      <c r="B126" s="2">
-        <v>1248.4000000000001</v>
-      </c>
-      <c r="C126" s="2">
-        <v>1458</v>
-      </c>
-      <c r="D126" s="2">
-        <v>1464</v>
-      </c>
-      <c r="E126" s="2">
-        <v>1460.7</v>
-      </c>
-      <c r="F126" s="2">
-        <v>1608.6</v>
-      </c>
-      <c r="G126" s="2">
-        <v>1605.1</v>
-      </c>
-      <c r="H126" s="2">
-        <v>1604.6</v>
-      </c>
-      <c r="I126" s="2"/>
-      <c r="K126" s="8">
-        <v>1460.7</v>
-      </c>
-      <c r="L126" s="2">
-        <f t="shared" ref="L126:L129" si="88">E126</f>
-        <v>1460.7</v>
-      </c>
-      <c r="M126" s="2">
-        <f t="shared" ref="M126:M129" si="89">SUM(F126:I126)</f>
-        <v>4818.2999999999993</v>
-      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2">
-        <v>789</v>
+        <v>1248.4000000000001</v>
       </c>
       <c r="C127" s="2">
-        <v>823</v>
+        <v>1458</v>
       </c>
       <c r="D127" s="2">
-        <v>807.9</v>
+        <v>1464</v>
       </c>
       <c r="E127" s="2">
-        <v>823.1</v>
+        <v>1460.7</v>
       </c>
       <c r="F127" s="2">
-        <v>831.9</v>
+        <v>1608.6</v>
       </c>
       <c r="G127" s="2">
-        <v>808.6</v>
+        <v>1605.1</v>
       </c>
       <c r="H127" s="2">
-        <v>813.5</v>
+        <v>1604.6</v>
       </c>
       <c r="I127" s="2"/>
       <c r="K127" s="8">
+        <v>1460.7</v>
+      </c>
+      <c r="L127" s="2">
+        <f t="shared" ref="L127:L130" si="88">E127</f>
+        <v>1460.7</v>
+      </c>
+      <c r="M127" s="2">
+        <f t="shared" ref="M127:M130" si="89">SUM(F127:I127)</f>
+        <v>4818.2999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128" s="2">
+        <v>789</v>
+      </c>
+      <c r="C128" s="2">
+        <v>823</v>
+      </c>
+      <c r="D128" s="2">
+        <v>807.9</v>
+      </c>
+      <c r="E128" s="2">
         <v>823.1</v>
       </c>
-      <c r="L127" s="2">
+      <c r="F128" s="2">
+        <v>831.9</v>
+      </c>
+      <c r="G128" s="2">
+        <v>808.6</v>
+      </c>
+      <c r="H128" s="2">
+        <v>813.5</v>
+      </c>
+      <c r="I128" s="2"/>
+      <c r="K128" s="8">
+        <v>823.1</v>
+      </c>
+      <c r="L128" s="2">
         <f t="shared" si="88"/>
         <v>823.1</v>
       </c>
-      <c r="M127" s="2">
+      <c r="M128" s="2">
         <f t="shared" si="89"/>
         <v>2454</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>105</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B129" s="2">
         <v>461.1</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C129" s="2">
         <v>448.8</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D129" s="2">
         <v>432.6</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E129" s="2">
         <v>255.2</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F129" s="2">
         <v>379.8</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G129" s="2">
         <v>279</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H129" s="2">
         <v>260.3</v>
       </c>
-      <c r="I128" s="2"/>
-      <c r="K128" s="8">
+      <c r="I129" s="2"/>
+      <c r="K129" s="8">
         <v>255.2</v>
       </c>
-      <c r="L128" s="2">
+      <c r="L129" s="2">
         <f t="shared" si="88"/>
         <v>255.2</v>
       </c>
-      <c r="M128" s="2">
+      <c r="M129" s="2">
         <f t="shared" si="89"/>
         <v>919.09999999999991</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B130" s="2">
         <v>1144.3</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C130" s="2">
         <v>1100.0999999999999</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D130" s="2">
         <v>1021.5</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E130" s="2">
         <v>901.7</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F130" s="2">
         <v>961.6</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G130" s="2">
         <v>806.7</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H130" s="2">
         <v>764.8</v>
       </c>
-      <c r="I129" s="2"/>
-      <c r="K129" s="8">
+      <c r="I130" s="2"/>
+      <c r="K130" s="8">
         <v>901.7</v>
       </c>
-      <c r="L129" s="2">
+      <c r="L130" s="2">
         <f t="shared" si="88"/>
         <v>901.7</v>
       </c>
-      <c r="M129" s="2">
+      <c r="M130" s="2">
         <f t="shared" si="89"/>
         <v>2533.1000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="3">
-        <f t="shared" ref="B130:G130" si="90">SUM(B126:B129)</f>
+      <c r="B131" s="3">
+        <f t="shared" ref="B131:G131" si="90">SUM(B127:B130)</f>
         <v>3642.8</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C131" s="3">
         <f t="shared" si="90"/>
         <v>3829.9</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D131" s="3">
         <f t="shared" si="90"/>
         <v>3726</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E131" s="3">
         <f t="shared" si="90"/>
         <v>3440.7</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F131" s="3">
         <f t="shared" si="90"/>
         <v>3781.9</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G131" s="3">
         <f t="shared" si="90"/>
         <v>3499.3999999999996</v>
       </c>
-      <c r="H130" s="3">
-        <f t="shared" ref="H130:M130" si="91">SUM(H126:H129)</f>
+      <c r="H131" s="3">
+        <f t="shared" ref="H131:M131" si="91">SUM(H127:H130)</f>
         <v>3443.2</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I131" s="3">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="K130" s="9">
-        <f>SUM(K126:K129)</f>
+      <c r="K131" s="9">
+        <f>SUM(K127:K130)</f>
         <v>3440.7</v>
       </c>
-      <c r="L130" s="3">
+      <c r="L131" s="3">
         <f t="shared" si="91"/>
         <v>3440.7</v>
       </c>
-      <c r="M130" s="3">
+      <c r="M131" s="3">
         <f t="shared" si="91"/>
         <v>10724.5</v>
       </c>

--- a/AGCO/AGCO.xlsx
+++ b/AGCO/AGCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/AGCO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1235" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56B810D-99FC-4C98-B6A1-BD8059CAAF96}"/>
+  <xr:revisionPtr revIDLastSave="1239" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3545DC-BA64-4670-AFA6-329310606070}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="1330" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="860" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t>SGA</t>
   </si>
   <si>
-    <t>Engineering</t>
-  </si>
-  <si>
     <t>Amort</t>
   </si>
   <si>
@@ -563,21 +560,25 @@
     <t>use for scripting</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
+  </si>
+  <si>
+    <t>RnD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -664,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -678,6 +679,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,7 +1202,7 @@
   <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1211,60 +1217,60 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="K2" s="7">
         <v>2023</v>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="5">
         <v>27900</v>
@@ -1293,13 +1299,13 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L7" s="5">
         <v>690</v>
@@ -1307,7 +1313,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L8" s="12">
         <v>0.49</v>
@@ -1315,7 +1321,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L9" s="5">
         <v>1795</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L10" s="12">
         <v>0.26</v>
@@ -1331,7 +1337,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="5">
         <v>220</v>
@@ -1339,7 +1345,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L12" s="12">
         <v>0.16</v>
@@ -1347,7 +1353,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L13" s="5">
         <v>395</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L14" s="12">
         <v>0.09</v>
@@ -1367,496 +1373,530 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="2">
+        <v>112</v>
+      </c>
+      <c r="B16" s="13">
         <v>923.1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="13">
         <v>996.8</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="13">
         <v>941.1</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
         <v>729.6</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="13">
         <v>837.8</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="13">
         <v>736.1</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="2">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="13">
         <f>SUM(B16:E16)</f>
         <v>2861</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="13">
         <f>SUM(F16:I16)</f>
         <v>2303.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="2">
+        <v>107</v>
+      </c>
+      <c r="B17" s="13">
         <v>503.8</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="13">
         <v>598.6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="13">
         <v>719.8</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
         <v>303.39999999999998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="13">
         <v>348.9</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="13">
         <v>381.6</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="2">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="13">
         <f t="shared" ref="L17:L19" si="0">SUM(B17:E17)</f>
         <v>1822.2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="13">
         <f t="shared" ref="M17:M19" si="1">SUM(F17:I17)</f>
         <v>1033.9000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="2">
+        <v>108</v>
+      </c>
+      <c r="B18" s="13">
         <v>1703.8</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="13">
         <v>1990.8</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="13">
         <v>1586.9</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
         <v>1729</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="13">
         <v>1902.9</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="13">
         <v>1298.2</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="2">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="13">
         <f t="shared" si="0"/>
         <v>5281.5</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="13">
         <f t="shared" si="1"/>
         <v>4930.1000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="2">
+        <v>109</v>
+      </c>
+      <c r="B19" s="13">
         <v>202.8</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="13">
         <v>236.5</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="13">
         <v>207.7</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
         <v>166.7</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="13">
         <v>157</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="13">
         <v>183.4</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="2">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="13">
         <f t="shared" si="0"/>
         <v>647</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="13">
         <f t="shared" si="1"/>
         <v>507.1</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="3">
+        <v>110</v>
+      </c>
+      <c r="B20" s="15">
         <f>SUM(B16:B19)</f>
         <v>3333.5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="15">
         <f t="shared" ref="C20:G20" si="2">SUM(C16:C19)</f>
         <v>3822.7</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="15">
         <f t="shared" si="2"/>
         <v>3455.5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="15">
         <f t="shared" si="2"/>
         <v>2928.7</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="15">
         <f t="shared" si="2"/>
         <v>3246.6</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="15">
         <f t="shared" ref="H20" si="3">SUM(H16:H19)</f>
         <v>2599.3000000000002</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="15">
         <f t="shared" ref="I20:M20" si="4">SUM(I16:I19)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="9">
+      <c r="J20" s="15"/>
+      <c r="K20" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="15">
         <f t="shared" si="4"/>
         <v>10611.7</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="15">
         <f t="shared" si="4"/>
         <v>8774.6</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="K21" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23">
+        <v>111</v>
+      </c>
+      <c r="B23" s="13">
         <v>102.1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="13">
         <v>136.9</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="13">
         <v>139.80000000000001</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13">
         <v>42.4</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="13">
         <v>76.7</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="13">
         <v>52.7</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="2">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="13">
         <f t="shared" ref="L23:L26" si="5">SUM(B23:E23)</f>
         <v>378.8</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="13">
         <f t="shared" ref="M23:M26" si="6">SUM(F23:I23)</f>
         <v>171.8</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="2">
+        <v>107</v>
+      </c>
+      <c r="B24" s="13">
         <v>99.5</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="13">
         <v>121.4</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="13">
         <v>149.80000000000001</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13">
         <v>16.2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="13">
         <v>12.6</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="13">
         <v>45.1</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="2">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="13">
         <f t="shared" si="5"/>
         <v>370.70000000000005</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="13">
         <f t="shared" si="6"/>
         <v>73.900000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="2">
+        <v>108</v>
+      </c>
+      <c r="B25" s="13">
         <v>239.4</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="13">
         <v>295.2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="13">
         <v>199.3</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
         <v>282.89999999999998</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="13">
         <v>288.5</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="13">
         <v>83</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="2">
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="13">
         <f t="shared" si="5"/>
         <v>733.90000000000009</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="13">
         <f t="shared" si="6"/>
         <v>654.4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="2">
+        <v>109</v>
+      </c>
+      <c r="B26" s="13">
         <v>18.100000000000001</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="13">
         <v>20.9</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="13">
         <v>19.2</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
         <v>8</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="13">
         <v>12.4</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="13">
         <v>7</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="2">
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="13">
         <f t="shared" si="5"/>
         <v>58.2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="13">
         <f t="shared" si="6"/>
         <v>27.4</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="3">
+        <v>110</v>
+      </c>
+      <c r="B27" s="15">
         <f>SUM(B23:B26)</f>
         <v>459.1</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="15">
         <f t="shared" ref="C27" si="7">SUM(C23:C26)</f>
         <v>574.4</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="15">
         <f t="shared" ref="D27" si="8">SUM(D23:D26)</f>
         <v>508.1</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="15">
         <f t="shared" ref="E27" si="9">SUM(E23:E26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="15">
         <f t="shared" ref="F27:G27" si="10">SUM(F23:F26)</f>
         <v>349.5</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="15">
         <f t="shared" si="10"/>
         <v>390.2</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="15">
         <f t="shared" ref="H27" si="11">SUM(H23:H26)</f>
         <v>187.8</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="15">
         <f t="shared" ref="I27:M27" si="12">SUM(I23:I26)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="9">
+      <c r="J27" s="13"/>
+      <c r="K27" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="15">
         <f t="shared" si="12"/>
         <v>1541.6000000000001</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="15">
         <f t="shared" si="12"/>
         <v>927.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="str">
+      <c r="B29" s="15" t="str">
         <f t="shared" ref="B29:I29" si="13">B2</f>
         <v>Q123</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Q223</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D29" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Q323</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E29" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Q423</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="F29" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Q124</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="G29" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Q224</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H29" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Q324</v>
       </c>
-      <c r="I29" s="1" t="str">
+      <c r="I29" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Q424</v>
       </c>
-      <c r="K29" s="7">
+      <c r="J29" s="15"/>
+      <c r="K29" s="16">
         <f>K2</f>
         <v>2023</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="15">
         <f>L2</f>
         <v>2023</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="15">
         <f>M2</f>
         <v>2024</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K30" s="7"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="13">
         <v>3333.5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="13">
         <v>3822.7</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="13">
         <v>3455.5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="13">
         <f>K31-D31-C31-B31</f>
         <v>3800.7</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="13">
         <v>2928.7</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="13">
         <v>3246.6</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="13">
         <v>2599.3000000000002</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="K31" s="8">
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14">
         <v>14412.4</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="13">
         <f t="shared" ref="L31:L32" si="14">SUM(B31:E31)</f>
         <v>14412.400000000001</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="13">
         <f t="shared" ref="M31:M32" si="15">SUM(F31:I31)</f>
         <v>8774.5999999999985</v>
       </c>
@@ -1865,37 +1905,38 @@
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="13">
         <v>2478.6</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="13">
         <v>2817</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="13">
         <v>2521.5</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="13">
         <f>K32-D32-C32-B32</f>
         <v>2817.9</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="13">
         <v>2158.9</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="13">
         <v>2409.1</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="13">
         <v>1996.2</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="K32" s="8">
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14">
         <v>10635</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="13">
         <f t="shared" si="14"/>
         <v>10635</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="13">
         <f t="shared" si="15"/>
         <v>6564.2</v>
       </c>
@@ -1904,47 +1945,48 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="15">
         <f>B31-B32</f>
         <v>854.90000000000009</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="15">
         <f t="shared" ref="C33:E33" si="16">C31-C32</f>
         <v>1005.6999999999998</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="15">
         <f t="shared" si="16"/>
         <v>934</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="15">
         <f t="shared" si="16"/>
         <v>982.79999999999973</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="15">
         <f>F31-F32</f>
         <v>769.79999999999973</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="15">
         <f>G31-G32</f>
         <v>837.5</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="15">
         <f t="shared" ref="H33:M33" si="17">H31-H32</f>
         <v>603.10000000000014</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K33" s="9">
+      <c r="J33" s="15"/>
+      <c r="K33" s="16">
         <f t="shared" si="17"/>
         <v>3777.3999999999996</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="15">
         <f t="shared" si="17"/>
         <v>3777.4000000000015</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="15">
         <f t="shared" si="17"/>
         <v>2210.3999999999987</v>
       </c>
@@ -1953,37 +1995,38 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="13">
         <v>331.8</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="13">
         <v>350.3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="13">
         <v>355.6</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="13">
         <f t="shared" ref="E34:E39" si="18">K34-D34-C34-B34</f>
         <v>416.80000000000013</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="13">
         <v>350.4</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="13">
         <v>379.8</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="13">
         <v>344.3</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="K34" s="8">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14">
         <v>1454.5</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="13">
         <f t="shared" ref="L34:L39" si="19">SUM(B34:E34)</f>
         <v>1454.5000000000002</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="13">
         <f t="shared" ref="M34:M39" si="20">SUM(F34:I34)</f>
         <v>1074.5</v>
       </c>
@@ -1992,731 +2035,760 @@
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="13">
         <v>119.6</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="13">
         <v>138.80000000000001</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="13">
         <v>139.6</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="13">
         <f t="shared" si="18"/>
         <v>150.79999999999993</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="13">
         <v>130.9</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="13">
         <v>137.80000000000001</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="13">
         <v>121.3</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="K35" s="8">
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14">
         <v>548.79999999999995</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="13">
         <f t="shared" si="19"/>
         <v>548.79999999999995</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="13">
         <f t="shared" si="20"/>
         <v>390.00000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
+        <v>138</v>
+      </c>
+      <c r="B36" s="13">
         <v>14.8</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="13">
         <v>14.1</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="13">
         <v>14.4</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="13">
         <f t="shared" si="18"/>
         <v>14.400000000000002</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="13">
         <v>13.9</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="13">
         <v>31.7</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="K36" s="8">
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14">
         <v>57.7</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="13">
         <f t="shared" si="19"/>
         <v>57.7</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="13">
         <f t="shared" si="20"/>
         <v>54.400000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
         <f t="shared" si="18"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="13">
         <v>0.2</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="K37" s="8">
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="13">
         <f t="shared" si="19"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="13">
         <f t="shared" si="20"/>
         <v>5.3</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="2">
+        <v>116</v>
+      </c>
+      <c r="B38" s="13">
         <v>1.4</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="13">
         <v>6.1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="13">
         <v>0.8</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="13">
         <f t="shared" si="18"/>
         <v>3.6</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="13">
         <v>1</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="13">
         <v>30.2</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="13">
         <v>10.5</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="K38" s="8">
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14">
         <v>11.9</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="13">
         <f t="shared" si="19"/>
         <v>11.9</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="13">
         <f t="shared" si="20"/>
         <v>41.7</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17">
         <v>494.6</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="13">
         <v>3.2</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14">
+        <v>0</v>
+      </c>
+      <c r="L39" s="13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="13">
         <f t="shared" si="20"/>
         <v>497.8</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="3">
+        <v>117</v>
+      </c>
+      <c r="B40" s="15">
         <f>SUM(B34:B38)+B32</f>
         <v>2946.2</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="15">
         <f t="shared" ref="C40:F40" si="21">SUM(C34:C38)+C32</f>
         <v>3326.3</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="15">
         <f t="shared" si="21"/>
         <v>3031.9</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="15">
         <f t="shared" si="21"/>
         <v>3407.6000000000004</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="15">
         <f t="shared" si="21"/>
         <v>2655.1</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="15">
         <f>SUM(G34:G39)+G32</f>
         <v>3488.3</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="15">
         <f t="shared" ref="H40:M40" si="22">SUM(H34:H39)+H32</f>
         <v>2484.5</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="15">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K40" s="9">
+      <c r="J40" s="15"/>
+      <c r="K40" s="16">
         <f t="shared" si="22"/>
         <v>12712</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="15">
         <f t="shared" si="22"/>
         <v>12712</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="15">
         <f t="shared" si="22"/>
         <v>8627.9</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3">
+        <v>42</v>
+      </c>
+      <c r="B41" s="15">
         <f>B31-B40</f>
         <v>387.30000000000018</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="15">
         <f t="shared" ref="C41:G41" si="23">C31-C40</f>
         <v>496.39999999999964</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="15">
         <f t="shared" si="23"/>
         <v>423.59999999999991</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="15">
         <f t="shared" si="23"/>
         <v>393.09999999999945</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="15">
         <f t="shared" si="23"/>
         <v>273.59999999999991</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="15">
         <f t="shared" si="23"/>
         <v>-241.70000000000027</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="15">
         <f t="shared" ref="H41" si="24">H31-H40</f>
         <v>114.80000000000018</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="15">
         <f t="shared" ref="I41:M41" si="25">I31-I40</f>
         <v>0</v>
       </c>
-      <c r="K41" s="9">
+      <c r="J41" s="15"/>
+      <c r="K41" s="16">
         <f t="shared" si="25"/>
         <v>1700.3999999999996</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="15">
         <f t="shared" si="25"/>
         <v>1700.4000000000015</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="15">
         <f t="shared" si="25"/>
         <v>146.69999999999891</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" s="13">
         <v>0.5</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="13">
         <v>5.8</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="13">
         <v>5.5</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="13">
         <f t="shared" ref="E42:E43" si="26">K42-D42-C42-B42</f>
         <v>-7.2</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="13">
         <v>1.9</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="17">
         <v>29.9</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="13">
         <v>33.9</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="K42" s="8">
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="13">
         <f t="shared" ref="L42:L43" si="27">SUM(B42:E42)</f>
         <v>4.6000000000000005</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="13">
         <f t="shared" ref="M42:M43" si="28">SUM(F42:I42)</f>
         <v>65.699999999999989</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2">
+        <v>37</v>
+      </c>
+      <c r="B43" s="13">
         <v>50.4</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="13">
         <v>78</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="13">
         <v>84.2</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="13">
         <f t="shared" si="26"/>
         <v>149.70000000000002</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="13">
         <v>50.8</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="13">
         <v>65.3</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="13">
         <v>52.3</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="K43" s="8">
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14">
         <v>362.3</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="13">
         <f t="shared" si="27"/>
         <v>362.30000000000007</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="13">
         <f t="shared" si="28"/>
         <v>168.39999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="3">
+        <v>38</v>
+      </c>
+      <c r="B44" s="15">
         <f>B41-B43-B42</f>
         <v>336.4000000000002</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="15">
         <f t="shared" ref="C44:G44" si="29">C41-C43-C42</f>
         <v>412.59999999999962</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="15">
         <f t="shared" si="29"/>
         <v>333.89999999999992</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="15">
         <f t="shared" si="29"/>
         <v>250.59999999999943</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="15">
         <f t="shared" si="29"/>
         <v>220.89999999999989</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="15">
         <f t="shared" si="29"/>
         <v>-336.90000000000026</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="15">
         <f t="shared" ref="H44" si="30">H41-H43-H42</f>
         <v>28.600000000000186</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="15">
         <f t="shared" ref="I44:M44" si="31">I41-I43-I42</f>
         <v>0</v>
       </c>
-      <c r="K44" s="9">
+      <c r="J44" s="15"/>
+      <c r="K44" s="16">
         <f t="shared" si="31"/>
         <v>1333.4999999999998</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="15">
         <f t="shared" si="31"/>
         <v>1333.5000000000014</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="15">
         <f t="shared" si="31"/>
         <v>-87.400000000001057</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="2">
+        <v>39</v>
+      </c>
+      <c r="B45" s="13">
         <v>120.2</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="13">
         <v>111</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="13">
         <v>75.3</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="13">
         <f t="shared" ref="E45:E47" si="32">K45-D45-C45-B45</f>
         <v>-76.09999999999998</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="13">
         <v>69.099999999999994</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="13">
         <v>41.6</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="13">
         <v>11.9</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="K45" s="8">
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14">
         <v>230.4</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="13">
         <f t="shared" ref="L45:L47" si="33">SUM(B45:E45)</f>
         <v>230.40000000000003</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="13">
         <f t="shared" ref="M45:M47" si="34">SUM(F45:I45)</f>
         <v>122.6</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13">
         <v>16.399999999999999</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="13">
         <v>17.600000000000001</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="13">
         <v>21.9</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="13">
         <f t="shared" si="32"/>
         <v>12.300000000000004</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="13">
         <v>16.2</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="13">
         <v>9.6</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="13">
         <v>12.2</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="K46" s="8">
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14">
         <v>68.2</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="13">
         <f t="shared" si="33"/>
         <v>68.2</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="13">
         <f t="shared" si="34"/>
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0</v>
+      </c>
+      <c r="D47" s="13">
         <v>0.1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
         <v>1.8</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="K47" s="8">
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14">
         <v>0.1</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="13">
         <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="13">
         <f t="shared" si="34"/>
         <v>2.9000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="15">
         <f t="shared" ref="B48:F48" si="35">B44-B45+B46+B47</f>
         <v>232.60000000000022</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="15">
         <f t="shared" si="35"/>
         <v>319.19999999999965</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="15">
         <f t="shared" si="35"/>
         <v>280.59999999999991</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="15">
         <f t="shared" si="35"/>
         <v>338.99999999999943</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="15">
         <f t="shared" si="35"/>
         <v>167.99999999999989</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="15">
         <f>G44-G45+G46+G47</f>
         <v>-367.10000000000025</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="15">
         <f t="shared" ref="H48:M48" si="36">H44-H45+H46+H47</f>
         <v>30.000000000000188</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="15">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K48" s="9">
+      <c r="J48" s="15"/>
+      <c r="K48" s="16">
         <f t="shared" si="36"/>
         <v>1171.3999999999996</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="15">
         <f t="shared" si="36"/>
         <v>1171.4000000000012</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="15">
         <f t="shared" si="36"/>
         <v>-169.10000000000105</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50"/>
-      <c r="B50" s="3">
+      <c r="B50" s="15">
         <f>B48/B54</f>
         <v>3.1179624664879388</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="15">
         <f t="shared" ref="C50:F50" si="37">C48/C54</f>
         <v>4.2616822429906493</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="15">
         <f t="shared" si="37"/>
         <v>3.7463284379172213</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="15">
         <f t="shared" si="37"/>
         <v>4.5320855614973183</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="15">
         <f t="shared" si="37"/>
         <v>2.2429906542056059</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="15">
         <f t="shared" ref="G50:I50" si="38">G48/G54</f>
         <v>-4.9209115281501381</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="15">
         <f t="shared" si="38"/>
         <v>0.40214477211796501</v>
       </c>
-      <c r="I50" s="3" t="e">
+      <c r="I50" s="15" t="e">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="9">
+      <c r="J50" s="15"/>
+      <c r="K50" s="16">
         <f t="shared" ref="K50" si="39">K48/K54</f>
         <v>15.660427807486627</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="15">
         <f t="shared" ref="L50:M50" si="40">L48/L54</f>
         <v>15.660427807486649</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="15">
         <f t="shared" si="40"/>
         <v>-2.266756032171596</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3">
+        <v>47</v>
+      </c>
+      <c r="B51" s="15">
         <f>B48/B55</f>
         <v>3.1137884872824659</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="15">
         <f t="shared" ref="C51:F51" si="41">C48/C55</f>
         <v>4.2559999999999949</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="15">
         <f t="shared" si="41"/>
         <v>3.7413333333333321</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="15">
         <f t="shared" si="41"/>
         <v>4.5260347129505929</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="15">
         <f t="shared" si="41"/>
         <v>2.2399999999999984</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="15">
         <f t="shared" ref="G51:I51" si="42">G48/G55</f>
         <v>-4.914323962516737</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="15">
         <f t="shared" si="42"/>
         <v>0.40160642570281374</v>
       </c>
-      <c r="I51" s="3" t="e">
+      <c r="I51" s="15" t="e">
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="9">
+      <c r="J51" s="15"/>
+      <c r="K51" s="16">
         <f t="shared" ref="K51" si="43">K48/K55</f>
         <v>15.639519359145522</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="15">
         <f t="shared" ref="L51:M51" si="44">L48/L55</f>
         <v>15.639519359145542</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="15">
         <f t="shared" si="44"/>
         <v>-2.2637215528781933</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="2">
+        <v>48</v>
+      </c>
+      <c r="B52" s="13">
         <v>0.24</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="13">
         <v>5.28</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="13">
         <f>K52-D52-C52-B52</f>
         <v>0.28999999999999937</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="13">
         <v>2.79</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I52" s="2"/>
-      <c r="K52" s="8">
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14">
         <v>6.1</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="13">
         <f t="shared" ref="L52" si="45">SUM(B52:E52)</f>
         <v>6.1</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="13">
         <f t="shared" ref="M52" si="46">SUM(F52:I52)</f>
         <v>3.37</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -2753,7 +2825,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55">
         <v>74.7</v>
@@ -2788,7 +2860,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2883,7 +2955,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2">
         <f>53.6+14.8</f>
@@ -2928,7 +3000,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2">
         <v>14</v>
@@ -2971,7 +3043,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -3012,7 +3084,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -3053,7 +3125,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2">
         <v>-16.399999999999999</v>
@@ -3096,7 +3168,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="2">
         <v>-3.9</v>
@@ -3139,7 +3211,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2">
         <v>2.4</v>
@@ -3182,7 +3254,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2">
         <v>-298.10000000000002</v>
@@ -3225,7 +3297,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2">
         <v>-402.6</v>
@@ -3268,7 +3340,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="2">
         <v>-69.900000000000006</v>
@@ -3311,7 +3383,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="2">
         <v>39.200000000000003</v>
@@ -3354,7 +3426,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="2">
         <v>-155.9</v>
@@ -3397,7 +3469,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="2">
         <v>33.1</v>
@@ -3440,7 +3512,7 @@
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="3">
         <f>SUM(B59:B72)</f>
@@ -3489,7 +3561,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3544,7 +3616,7 @@
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="4">
         <f>B112/B96</f>
@@ -3593,7 +3665,7 @@
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="4">
         <f t="shared" ref="B78:I78" si="63">B87/B105</f>
@@ -3642,7 +3714,7 @@
     </row>
     <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="3">
         <f t="shared" ref="B79:I79" si="64">B87-B105</f>
@@ -3691,13 +3763,13 @@
     </row>
     <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K81" s="7"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2">
         <v>558.70000000000005</v>
@@ -3732,7 +3804,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="2">
         <v>1530.7</v>
@@ -3767,7 +3839,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2">
         <v>3642.8</v>
@@ -3802,7 +3874,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85" s="2">
         <v>596.6</v>
@@ -3837,7 +3909,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -3872,7 +3944,7 @@
     </row>
     <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" s="3">
         <f t="shared" ref="B87:D87" si="66">SUM(B82:B86)</f>
@@ -3921,7 +3993,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88" s="2">
         <v>1668.7</v>
@@ -3956,7 +4028,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" s="2">
         <v>160.80000000000001</v>
@@ -3991,7 +4063,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" s="2">
         <v>456.5</v>
@@ -4026,7 +4098,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="2">
         <v>232.9</v>
@@ -4061,7 +4133,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" s="2">
         <v>287.39999999999998</v>
@@ -4096,7 +4168,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -4131,7 +4203,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" s="2">
         <v>354</v>
@@ -4166,7 +4238,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B95" s="2">
         <v>1322.5</v>
@@ -4198,7 +4270,7 @@
     </row>
     <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" s="3">
         <f t="shared" ref="B96:H96" si="69">SUM(B87:B95)</f>
@@ -4260,7 +4332,7 @@
     </row>
     <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4276,7 +4348,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2">
         <v>190.6</v>
@@ -4311,7 +4383,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2">
         <v>4.9000000000000004</v>
@@ -4335,7 +4407,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" s="2">
         <v>1426.6</v>
@@ -4370,7 +4442,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="2">
         <v>2144.3000000000002</v>
@@ -4405,7 +4477,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" s="2">
         <v>217.9</v>
@@ -4440,7 +4512,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2">
         <v>0</v>
@@ -4475,7 +4547,7 @@
     </row>
     <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B105" s="3">
         <f t="shared" ref="B105:D105" si="71">SUM(B99:B104)</f>
@@ -4524,7 +4596,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" s="2">
         <v>1791.1</v>
@@ -4559,7 +4631,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" s="2">
         <v>122.3</v>
@@ -4594,7 +4666,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108" s="2">
         <v>160.1</v>
@@ -4629,7 +4701,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B109" s="2">
         <v>115.3</v>
@@ -4664,7 +4736,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2">
         <v>505.6</v>
@@ -4699,7 +4771,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2">
         <v>0</v>
@@ -4734,7 +4806,7 @@
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B112" s="3">
         <f t="shared" ref="B112:F112" si="74">SUM(B105:B111)</f>
@@ -4783,7 +4855,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2">
         <v>0</v>
@@ -4818,13 +4890,13 @@
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K115" s="7"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2">
         <v>0</v>
@@ -4862,7 +4934,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B117" s="2">
         <v>0.7</v>
@@ -4900,7 +4972,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2">
         <v>24.7</v>
@@ -4938,7 +5010,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2">
         <v>5863.7</v>
@@ -4976,7 +5048,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="2">
         <v>-1756.4</v>
@@ -5014,7 +5086,7 @@
     </row>
     <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B121" s="3">
         <f t="shared" ref="B121:G121" si="81">SUM(B116:B120)</f>
@@ -5063,7 +5135,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B122" s="2">
         <v>0.2</v>
@@ -5095,7 +5167,7 @@
     </row>
     <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B123" s="3">
         <f t="shared" ref="B123:G123" si="83">SUM(B121:B122)</f>
@@ -5144,7 +5216,7 @@
     </row>
     <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B124" s="3">
         <f t="shared" ref="B124:F124" si="85">B123+B112+B113</f>
@@ -5205,7 +5277,7 @@
     </row>
     <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -5220,7 +5292,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B127" s="2">
         <v>1248.4000000000001</v>
@@ -5258,7 +5330,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B128" s="2">
         <v>789</v>
@@ -5296,7 +5368,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2">
         <v>461.1</v>
@@ -5334,7 +5406,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2">
         <v>1144.3</v>
@@ -5372,7 +5444,7 @@
     </row>
     <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B131" s="3">
         <f t="shared" ref="B131:G131" si="90">SUM(B127:B130)</f>

--- a/AGCO/AGCO.xlsx
+++ b/AGCO/AGCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/AGCO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1239" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3545DC-BA64-4670-AFA6-329310606070}"/>
+  <xr:revisionPtr revIDLastSave="1242" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAFEE0B-64AF-45CB-85AF-4747104B7372}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="860" windowWidth="17580" windowHeight="19410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11500" yWindow="5120" windowWidth="18000" windowHeight="12750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
   <si>
     <t>Products</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>RnD</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -684,6 +687,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,7 +1208,7 @@
   <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,6 +1246,9 @@
       <c r="H1" t="s">
         <v>135</v>
       </c>
+      <c r="J1" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L1" t="s">
         <v>136</v>
       </c>
@@ -1272,6 +1281,9 @@
       <c r="I2" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="J2" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K2" s="7">
         <v>2023</v>
       </c>
@@ -1283,6 +1295,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1292,21 +1307,33 @@
       <c r="E4" s="5">
         <v>27900</v>
       </c>
+      <c r="J4" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="J6" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>128</v>
       </c>
+      <c r="J7" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L7" s="5">
         <v>690</v>
       </c>
@@ -1315,6 +1342,9 @@
       <c r="A8" t="s">
         <v>130</v>
       </c>
+      <c r="J8" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L8" s="12">
         <v>0.49</v>
       </c>
@@ -1323,6 +1353,9 @@
       <c r="A9" t="s">
         <v>107</v>
       </c>
+      <c r="J9" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L9" s="5">
         <v>1795</v>
       </c>
@@ -1331,6 +1364,9 @@
       <c r="A10" t="s">
         <v>130</v>
       </c>
+      <c r="J10" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L10" s="12">
         <v>0.26</v>
       </c>
@@ -1339,6 +1375,9 @@
       <c r="A11" t="s">
         <v>108</v>
       </c>
+      <c r="J11" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L11" s="5">
         <v>220</v>
       </c>
@@ -1347,6 +1386,9 @@
       <c r="A12" t="s">
         <v>130</v>
       </c>
+      <c r="J12" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L12" s="12">
         <v>0.16</v>
       </c>
@@ -1355,6 +1397,9 @@
       <c r="A13" t="s">
         <v>129</v>
       </c>
+      <c r="J13" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L13" s="5">
         <v>395</v>
       </c>
@@ -1363,12 +1408,18 @@
       <c r="A14" t="s">
         <v>130</v>
       </c>
+      <c r="J14" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="L14" s="12">
         <v>0.09</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
+      <c r="J15" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1395,7 +1446,9 @@
         <v>736.1</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K16" s="14"/>
       <c r="L16" s="13">
         <f>SUM(B16:E16)</f>
@@ -1430,7 +1483,9 @@
         <v>381.6</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K17" s="14"/>
       <c r="L17" s="13">
         <f t="shared" ref="L17:L19" si="0">SUM(B17:E17)</f>
@@ -1465,7 +1520,9 @@
         <v>1298.2</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K18" s="14"/>
       <c r="L18" s="13">
         <f t="shared" si="0"/>
@@ -1500,7 +1557,9 @@
         <v>183.4</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K19" s="14"/>
       <c r="L19" s="13">
         <f t="shared" si="0"/>
@@ -1547,7 +1606,9 @@
         <f t="shared" ref="I20:M20" si="4">SUM(I16:I19)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K20" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1573,7 +1634,9 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K21" s="16"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -1588,7 +1651,9 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="13"/>
+      <c r="J22" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K22" s="14"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -1617,7 +1682,9 @@
         <v>52.7</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="J23" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K23" s="14"/>
       <c r="L23" s="13">
         <f t="shared" ref="L23:L26" si="5">SUM(B23:E23)</f>
@@ -1652,7 +1719,9 @@
         <v>45.1</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="J24" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K24" s="14"/>
       <c r="L24" s="13">
         <f t="shared" si="5"/>
@@ -1687,7 +1756,9 @@
         <v>83</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K25" s="14"/>
       <c r="L25" s="13">
         <f t="shared" si="5"/>
@@ -1722,7 +1793,9 @@
         <v>7</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="J26" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K26" s="14"/>
       <c r="L26" s="13">
         <f t="shared" si="5"/>
@@ -1769,7 +1842,9 @@
         <f t="shared" ref="I27:M27" si="12">SUM(I23:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="J27" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K27" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -1795,7 +1870,9 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K28" s="14"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -1833,7 +1910,9 @@
         <f t="shared" si="13"/>
         <v>Q424</v>
       </c>
-      <c r="J29" s="15"/>
+      <c r="J29" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K29" s="16">
         <f>K2</f>
         <v>2023</v>
@@ -1856,7 +1935,9 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K30" s="16"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -1888,7 +1969,9 @@
         <v>2599.3000000000002</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="J31" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K31" s="14">
         <v>14412.4</v>
       </c>
@@ -1928,7 +2011,9 @@
         <v>1996.2</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K32" s="14">
         <v>10635</v>
       </c>
@@ -1977,7 +2062,9 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K33" s="16">
         <f t="shared" si="17"/>
         <v>3777.3999999999996</v>
@@ -2018,7 +2105,9 @@
         <v>344.3</v>
       </c>
       <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K34" s="14">
         <v>1454.5</v>
       </c>
@@ -2058,7 +2147,9 @@
         <v>121.3</v>
       </c>
       <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="J35" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K35" s="14">
         <v>548.79999999999995</v>
       </c>
@@ -2098,7 +2189,9 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="J36" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K36" s="14">
         <v>57.7</v>
       </c>
@@ -2138,7 +2231,9 @@
         <v>0.2</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="J37" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K37" s="14">
         <v>4.0999999999999996</v>
       </c>
@@ -2178,7 +2273,9 @@
         <v>10.5</v>
       </c>
       <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="J38" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K38" s="14">
         <v>11.9</v>
       </c>
@@ -2218,7 +2315,9 @@
         <v>3.2</v>
       </c>
       <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="J39" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K39" s="14">
         <v>0</v>
       </c>
@@ -2267,7 +2366,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J40" s="15"/>
+      <c r="J40" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K40" s="16">
         <f t="shared" si="22"/>
         <v>12712</v>
@@ -2317,7 +2418,9 @@
         <f t="shared" ref="I41:M41" si="25">I31-I40</f>
         <v>0</v>
       </c>
-      <c r="J41" s="15"/>
+      <c r="J41" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K41" s="16">
         <f t="shared" si="25"/>
         <v>1700.3999999999996</v>
@@ -2358,7 +2461,9 @@
         <v>33.9</v>
       </c>
       <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="J42" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K42" s="14">
         <v>4.5999999999999996</v>
       </c>
@@ -2398,7 +2503,9 @@
         <v>52.3</v>
       </c>
       <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="J43" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K43" s="14">
         <v>362.3</v>
       </c>
@@ -2447,7 +2554,9 @@
         <f t="shared" ref="I44:M44" si="31">I41-I43-I42</f>
         <v>0</v>
       </c>
-      <c r="J44" s="15"/>
+      <c r="J44" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K44" s="16">
         <f t="shared" si="31"/>
         <v>1333.4999999999998</v>
@@ -2488,7 +2597,9 @@
         <v>11.9</v>
       </c>
       <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="J45" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K45" s="14">
         <v>230.4</v>
       </c>
@@ -2528,7 +2639,9 @@
         <v>12.2</v>
       </c>
       <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="J46" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K46" s="14">
         <v>68.2</v>
       </c>
@@ -2568,7 +2681,9 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="J47" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K47" s="14">
         <v>0.1</v>
       </c>
@@ -2617,7 +2732,9 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J48" s="15"/>
+      <c r="J48" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K48" s="16">
         <f t="shared" si="36"/>
         <v>1171.3999999999996</v>
@@ -2643,7 +2760,9 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="J49" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K49" s="14"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -2682,7 +2801,9 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="15"/>
+      <c r="J50" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K50" s="16">
         <f t="shared" ref="K50" si="39">K48/K54</f>
         <v>15.660427807486627</v>
@@ -2732,7 +2853,9 @@
         <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="15"/>
+      <c r="J51" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K51" s="16">
         <f t="shared" ref="K51" si="43">K48/K55</f>
         <v>15.639519359145522</v>
@@ -2773,7 +2896,9 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="J52" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K52" s="14">
         <v>6.1</v>
       </c>
@@ -2790,6 +2915,9 @@
       <c r="A53" t="s">
         <v>51</v>
       </c>
+      <c r="J53" s="18" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B54">
@@ -2813,6 +2941,9 @@
       <c r="H54">
         <v>74.599999999999994</v>
       </c>
+      <c r="J54" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K54" s="10">
         <v>74.8</v>
       </c>
@@ -2848,6 +2979,9 @@
       <c r="H55">
         <v>74.7</v>
       </c>
+      <c r="J55" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K55" s="10">
         <v>74.900000000000006</v>
       </c>
@@ -2861,6 +2995,9 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>50</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2897,6 +3034,9 @@
         <f t="shared" si="49"/>
         <v>Q424</v>
       </c>
+      <c r="J57" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K57" s="7">
         <f t="shared" ref="K57" si="50">K29</f>
         <v>2023</v>
@@ -2912,6 +3052,9 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
+      <c r="J58" s="18" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B59" s="2">
@@ -2941,6 +3084,9 @@
         <v>28.899999999999977</v>
       </c>
       <c r="I59" s="2"/>
+      <c r="J59" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K59" s="8">
         <v>1171.3</v>
       </c>
@@ -2986,6 +3132,9 @@
         <v>69.700000000000031</v>
       </c>
       <c r="I60" s="2"/>
+      <c r="J60" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K60" s="8">
         <v>230.4</v>
       </c>
@@ -3029,6 +3178,9 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="I61" s="2"/>
+      <c r="J61" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K61" s="8">
         <v>4.0999999999999996</v>
       </c>
@@ -3070,6 +3222,9 @@
         <v>0.20000000000000018</v>
       </c>
       <c r="I62" s="2"/>
+      <c r="J62" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K62" s="8">
         <v>57.7</v>
       </c>
@@ -3111,6 +3266,9 @@
         <v>3.1999999999999886</v>
       </c>
       <c r="I63" s="2"/>
+      <c r="J63" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K63" s="8">
         <v>46.4</v>
       </c>
@@ -3154,6 +3312,9 @@
         <v>-12.199999999999996</v>
       </c>
       <c r="I64" s="2"/>
+      <c r="J64" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K64" s="8">
         <v>-36.4</v>
       </c>
@@ -3197,6 +3358,9 @@
         <v>-5.5000000000000009</v>
       </c>
       <c r="I65" s="2"/>
+      <c r="J65" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K65" s="8">
         <v>-264.39999999999998</v>
       </c>
@@ -3240,6 +3404,9 @@
         <v>5.5</v>
       </c>
       <c r="I66" s="2"/>
+      <c r="J66" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K66" s="8">
         <v>6.7</v>
       </c>
@@ -3283,6 +3450,9 @@
         <v>20.9</v>
       </c>
       <c r="I67" s="2"/>
+      <c r="J67" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K67" s="8">
         <v>-443.8</v>
       </c>
@@ -3326,6 +3496,9 @@
         <v>152.20000000000005</v>
       </c>
       <c r="I68" s="2"/>
+      <c r="J68" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K68" s="8">
         <v>-164.4</v>
       </c>
@@ -3369,6 +3542,9 @@
         <v>-17.599999999999998</v>
       </c>
       <c r="I69" s="2"/>
+      <c r="J69" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K69" s="8">
         <v>-243</v>
       </c>
@@ -3412,6 +3588,9 @@
         <v>-137.19999999999999</v>
       </c>
       <c r="I70" s="2"/>
+      <c r="J70" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K70" s="8">
         <v>-191.6</v>
       </c>
@@ -3455,6 +3634,9 @@
         <v>-107.69999999999999</v>
       </c>
       <c r="I71" s="2"/>
+      <c r="J71" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K71" s="8">
         <v>566.5</v>
       </c>
@@ -3498,6 +3680,9 @@
         <v>20.900000000000013</v>
       </c>
       <c r="I72" s="2"/>
+      <c r="J72" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K72" s="8">
         <v>363.6</v>
       </c>
@@ -3546,6 +3731,9 @@
         <f t="shared" ref="I73:M73" si="57">SUM(I59:I72)</f>
         <v>0</v>
       </c>
+      <c r="J73" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K73" s="9">
         <f t="shared" si="57"/>
         <v>1103.0999999999999</v>
@@ -3562,6 +3750,9 @@
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3598,6 +3789,9 @@
         <f t="shared" si="58"/>
         <v>Q424</v>
       </c>
+      <c r="J75" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K75" s="7">
         <f>K57</f>
         <v>2023</v>
@@ -3612,6 +3806,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J76" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K76" s="7"/>
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3650,6 +3847,9 @@
         <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="J77" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K77" s="11">
         <f t="shared" ref="K77" si="61">K112/K96</f>
         <v>0.5922670122228838</v>
@@ -3699,6 +3899,9 @@
         <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="J78" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K78" s="11">
         <f>K87/K105</f>
         <v>1.4598029284464498</v>
@@ -3748,6 +3951,9 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
+      <c r="J79" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K79" s="9">
         <f>K87-K105</f>
         <v>1997.1999999999998</v>
@@ -3761,10 +3967,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J80" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="J81" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K81" s="7"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -3793,6 +4007,9 @@
         <v>622.6</v>
       </c>
       <c r="I82" s="2"/>
+      <c r="J82" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K82" s="8">
         <v>595.5</v>
       </c>
@@ -3828,6 +4045,9 @@
         <v>1448.4</v>
       </c>
       <c r="I83" s="2"/>
+      <c r="J83" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K83" s="8">
         <v>1605.3</v>
       </c>
@@ -3863,6 +4083,9 @@
         <v>3443.2</v>
       </c>
       <c r="I84" s="2"/>
+      <c r="J84" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K84" s="8">
         <v>3440.7</v>
       </c>
@@ -3898,6 +4121,9 @@
         <v>607.70000000000005</v>
       </c>
       <c r="I85" s="2"/>
+      <c r="J85" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K85" s="8">
         <v>699.3</v>
       </c>
@@ -3933,6 +4159,9 @@
         <v>417</v>
       </c>
       <c r="I86" s="2"/>
+      <c r="J86" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K86" s="8">
         <v>0</v>
       </c>
@@ -3978,6 +4207,9 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
+      <c r="J87" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K87" s="9">
         <f>SUM(K82:K86)</f>
         <v>6340.8</v>
@@ -4017,6 +4249,9 @@
         <v>1880.6</v>
       </c>
       <c r="I88" s="2"/>
+      <c r="J88" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K88" s="8">
         <v>1920.9</v>
       </c>
@@ -4052,6 +4287,9 @@
         <v>171.8</v>
       </c>
       <c r="I89" s="2"/>
+      <c r="J89" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K89" s="8">
         <v>176.2</v>
       </c>
@@ -4087,6 +4325,9 @@
         <v>551.5</v>
       </c>
       <c r="I90" s="2"/>
+      <c r="J90" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K90" s="8">
         <v>512.70000000000005</v>
       </c>
@@ -4122,6 +4363,9 @@
         <v>507.3</v>
       </c>
       <c r="I91" s="2"/>
+      <c r="J91" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K91" s="8">
         <v>481.6</v>
       </c>
@@ -4157,6 +4401,9 @@
         <v>450.5</v>
       </c>
       <c r="I92" s="2"/>
+      <c r="J92" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K92" s="8">
         <v>346.8</v>
       </c>
@@ -4192,6 +4439,9 @@
         <v>459</v>
       </c>
       <c r="I93" s="2"/>
+      <c r="J93" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K93" s="8">
         <v>0</v>
       </c>
@@ -4227,6 +4477,9 @@
         <v>588.79999999999995</v>
       </c>
       <c r="I94" s="2"/>
+      <c r="J94" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K94" s="8">
         <v>308.8</v>
       </c>
@@ -4262,6 +4515,9 @@
         <v>2358.4</v>
       </c>
       <c r="I95" s="2"/>
+      <c r="J95" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K95" s="8">
         <v>1333.4</v>
       </c>
@@ -4303,6 +4559,9 @@
       <c r="I96" s="3">
         <f>SUM(I87:I93)</f>
         <v>0</v>
+      </c>
+      <c r="J96" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="K96" s="9">
         <f>SUM(K87:K95)</f>
@@ -4326,6 +4585,9 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
+      <c r="J97" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K97" s="8"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -4342,6 +4604,9 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
+      <c r="J98" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K98" s="9"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -4372,6 +4637,9 @@
         <v>412.3</v>
       </c>
       <c r="I99" s="2"/>
+      <c r="J99" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K99" s="8">
         <v>15</v>
       </c>
@@ -4401,6 +4669,9 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
+      <c r="J100" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K100" s="8"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -4431,6 +4702,9 @@
         <v>961.1</v>
       </c>
       <c r="I101" s="2"/>
+      <c r="J101" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K101" s="8">
         <v>1207.3</v>
       </c>
@@ -4466,6 +4740,9 @@
         <v>2508.8000000000002</v>
       </c>
       <c r="I102" s="2"/>
+      <c r="J102" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K102" s="8">
         <v>2903.8</v>
       </c>
@@ -4501,6 +4778,9 @@
         <v>138.30000000000001</v>
       </c>
       <c r="I103" s="2"/>
+      <c r="J103" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K103" s="8">
         <v>217.5</v>
       </c>
@@ -4536,6 +4816,9 @@
         <v>259.60000000000002</v>
       </c>
       <c r="I104" s="2"/>
+      <c r="J104" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K104" s="8">
         <v>0</v>
       </c>
@@ -4581,6 +4864,9 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
+      <c r="J105" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K105" s="9">
         <f>SUM(K99:K104)</f>
         <v>4343.6000000000004</v>
@@ -4620,6 +4906,9 @@
         <v>3610</v>
       </c>
       <c r="I106" s="2"/>
+      <c r="J106" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K106" s="8">
         <v>1377.2</v>
       </c>
@@ -4655,6 +4944,9 @@
         <v>129</v>
       </c>
       <c r="I107" s="2"/>
+      <c r="J107" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K107" s="8">
         <v>134.4</v>
       </c>
@@ -4690,6 +4982,9 @@
         <v>167.9</v>
       </c>
       <c r="I108" s="2"/>
+      <c r="J108" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K108" s="8">
         <v>170.5</v>
       </c>
@@ -4725,6 +5020,9 @@
         <v>120.4</v>
       </c>
       <c r="I109" s="2"/>
+      <c r="J109" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K109" s="8">
         <v>122.6</v>
       </c>
@@ -4760,6 +5058,9 @@
         <v>686.2</v>
       </c>
       <c r="I110" s="2"/>
+      <c r="J110" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K110" s="8">
         <v>616.1</v>
       </c>
@@ -4795,6 +5096,9 @@
         <v>26.9</v>
       </c>
       <c r="I111" s="2"/>
+      <c r="J111" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K111" s="8">
         <v>0</v>
       </c>
@@ -4840,6 +5144,9 @@
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
+      <c r="J112" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K112" s="9">
         <f t="shared" ref="K112" si="76">SUM(K105:K111)</f>
         <v>6764.4000000000005</v>
@@ -4879,6 +5186,9 @@
         <v>337.5</v>
       </c>
       <c r="I113" s="2"/>
+      <c r="J113" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K113" s="8">
         <v>0</v>
       </c>
@@ -4887,11 +5197,19 @@
         <v>0</v>
       </c>
       <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J114" s="18" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="J115" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K115" s="7"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
@@ -4920,6 +5238,9 @@
         <v>0</v>
       </c>
       <c r="I116" s="2"/>
+      <c r="J116" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K116" s="8">
         <v>0</v>
       </c>
@@ -4958,6 +5279,9 @@
         <v>0.7</v>
       </c>
       <c r="I117" s="2"/>
+      <c r="J117" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K117" s="8">
         <v>0.7</v>
       </c>
@@ -4996,6 +5320,9 @@
         <v>12.4</v>
       </c>
       <c r="I118" s="2"/>
+      <c r="J118" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K118" s="8">
         <v>4.0999999999999996</v>
       </c>
@@ -5034,6 +5361,9 @@
         <v>5938.9</v>
       </c>
       <c r="I119" s="2"/>
+      <c r="J119" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K119" s="8">
         <v>6360</v>
       </c>
@@ -5072,6 +5402,9 @@
         <v>-1803.2</v>
       </c>
       <c r="I120" s="2"/>
+      <c r="J120" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K120" s="8">
         <v>-1708.1</v>
       </c>
@@ -5120,6 +5453,9 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
+      <c r="J121" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K121" s="9">
         <f>SUM(K116:K120)</f>
         <v>4656.7000000000007</v>
@@ -5159,6 +5495,9 @@
         <v>0</v>
       </c>
       <c r="I122" s="2"/>
+      <c r="J122" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K122" s="8">
         <v>0.1</v>
       </c>
@@ -5201,6 +5540,9 @@
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
+      <c r="J123" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K123" s="9">
         <f>SUM(K121:K122)</f>
         <v>4656.8000000000011</v>
@@ -5249,6 +5591,9 @@
       <c r="I124" s="3">
         <f t="shared" ref="I124:M124" si="86">I123+I112</f>
         <v>0</v>
+      </c>
+      <c r="J124" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="K124" s="9">
         <f t="shared" ref="K124" si="87">K123+K112+K113</f>
@@ -5271,6 +5616,9 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
+      <c r="J125" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K125" s="8"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -5286,6 +5634,9 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
+      <c r="J126" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K126" s="9"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -5316,6 +5667,9 @@
         <v>1604.6</v>
       </c>
       <c r="I127" s="2"/>
+      <c r="J127" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K127" s="8">
         <v>1460.7</v>
       </c>
@@ -5354,6 +5708,9 @@
         <v>813.5</v>
       </c>
       <c r="I128" s="2"/>
+      <c r="J128" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K128" s="8">
         <v>823.1</v>
       </c>
@@ -5392,6 +5749,9 @@
         <v>260.3</v>
       </c>
       <c r="I129" s="2"/>
+      <c r="J129" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K129" s="8">
         <v>255.2</v>
       </c>
@@ -5430,6 +5790,9 @@
         <v>764.8</v>
       </c>
       <c r="I130" s="2"/>
+      <c r="J130" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="K130" s="8">
         <v>901.7</v>
       </c>
@@ -5477,6 +5840,9 @@
       <c r="I131" s="3">
         <f t="shared" si="91"/>
         <v>0</v>
+      </c>
+      <c r="J131" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="K131" s="9">
         <f>SUM(K127:K130)</f>

--- a/AGCO/AGCO.xlsx
+++ b/AGCO/AGCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/AGCO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1242" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAFEE0B-64AF-45CB-85AF-4747104B7372}"/>
+  <xr:revisionPtr revIDLastSave="1243" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A3E3FBA-CEEC-4342-B23C-87B6541815F1}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="5120" windowWidth="18000" windowHeight="12750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="3610" windowWidth="12330" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AD8E5B-022C-42CE-B268-F739C26FDB37}">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1927,6 +1927,9 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1943,8 +1946,8 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="13">
         <v>3333.5</v>
@@ -1986,7 +1989,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="13">
         <v>2478.6</v>
@@ -2027,8 +2030,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>31</v>
+      <c r="A33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B33" s="15">
         <f>B31-B32</f>
@@ -2079,8 +2082,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>33</v>
       </c>
       <c r="B34" s="13">
         <v>331.8</v>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B35" s="13">
         <v>119.6</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="B36" s="13">
         <v>14.8</v>
@@ -2206,7 +2209,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="B37" s="13">
         <v>0</v>
@@ -2248,7 +2251,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B38" s="13">
         <v>1.4</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B39" s="13">
         <v>0</v>
@@ -2331,8 +2334,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>117</v>
+      <c r="A40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="15">
         <f>SUM(B34:B38)+B32</f>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B41" s="15">
         <f>B31-B40</f>
@@ -2435,8 +2438,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>36</v>
+      <c r="A42" t="s">
+        <v>37</v>
       </c>
       <c r="B42" s="13">
         <v>0.5</v>
@@ -2478,7 +2481,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="13">
         <v>50.4</v>
@@ -2519,8 +2522,8 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>38</v>
+      <c r="A44" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B44" s="15">
         <f>B41-B43-B42</f>
@@ -2571,8 +2574,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>39</v>
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45" s="13">
         <v>120.2</v>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="13">
         <v>16.399999999999999</v>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" s="13">
         <v>0</v>
@@ -2697,8 +2700,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>46</v>
+      <c r="A48" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B48" s="15">
         <f t="shared" ref="B48:F48" si="35">B44-B45+B46+B47</f>
@@ -2749,9 +2752,6 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -2768,7 +2768,9 @@
       <c r="M49" s="13"/>
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50"/>
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B50" s="15">
         <f>B48/B54</f>
         <v>3.1179624664879388</v>
@@ -2819,7 +2821,7 @@
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="15">
         <f>B48/B55</f>
@@ -2870,8 +2872,8 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>48</v>
+      <c r="A52" t="s">
+        <v>51</v>
       </c>
       <c r="B52" s="13">
         <v>0.24</v>
@@ -2912,14 +2914,14 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
       <c r="J53" s="18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
       <c r="B54">
         <v>74.599999999999994</v>
       </c>
@@ -2956,7 +2958,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55">
         <v>74.7</v>
@@ -2993,15 +2995,11 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
       <c r="J56" s="18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57"/>
       <c r="B57" s="1" t="str">
         <f>B29</f>
         <v>Q123</v>
@@ -3051,12 +3049,14 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
       <c r="J58" s="18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
       <c r="B59" s="2">
         <v>232.6</v>
       </c>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2">
         <f>53.6+14.8</f>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B61" s="2">
         <v>14</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2">
         <v>-16.399999999999999</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="2">
         <v>-3.9</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" s="2">
         <v>2.4</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2">
         <v>-298.10000000000002</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" s="2">
         <v>-402.6</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B69" s="2">
         <v>-69.900000000000006</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70" s="2">
         <v>39.200000000000003</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B71" s="2">
         <v>-155.9</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2">
         <v>33.1</v>
@@ -3696,8 +3696,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>63</v>
+      <c r="A73" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B73" s="3">
         <f>SUM(B59:B72)</f>
@@ -3748,9 +3748,6 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="J74" s="18" t="s">
         <v>139</v>
       </c>
